--- a/Code/1-Foundation/Lever/Resources/SR.xlsx
+++ b/Code/1-Foundation/Lever/Resources/SR.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1092">
   <si>
     <t>Identifier</t>
   </si>
@@ -1663,13 +1663,1658 @@
   <si>
     <t>_Exception_LengthOutOfRange</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpClient_Exception_ReceiveEmtpy</t>
+  </si>
+  <si>
+    <t>Not any data has been received.</t>
+  </si>
+  <si>
+    <t>Socket_Exception_ReceiveEmtpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>API_Shell_InvalidInterface</t>
+  </si>
+  <si>
+    <t>Type provided must be an Interface.</t>
+  </si>
+  <si>
+    <t>ArrayCollection_CouldNotInsertSelf</t>
+  </si>
+  <si>
+    <t>Could not insert itself.</t>
+  </si>
+  <si>
+    <t>ASN1Helper_InvalidData</t>
+  </si>
+  <si>
+    <t>Invalid key data.</t>
+  </si>
+  <si>
+    <t>ASN1Object_ClassificationNotSupport</t>
+  </si>
+  <si>
+    <t>Only support data of universal classification.</t>
+  </si>
+  <si>
+    <t>ASN1Object_InvalidData</t>
+  </si>
+  <si>
+    <t>Invalid ASN1 data.</t>
+  </si>
+  <si>
+    <t>ASN1Object_InvalidSize</t>
+  </si>
+  <si>
+    <t>Invalid size.</t>
+  </si>
+  <si>
+    <t>ASN1Object_PrimitiveTypeNotSupport</t>
+  </si>
+  <si>
+    <t>Primitive type does not support.</t>
+  </si>
+  <si>
+    <t>BitManager_Exception_DataExist</t>
+  </si>
+  <si>
+    <t>Data already exist.</t>
+  </si>
+  <si>
+    <t>BitManager_Exception_LengthOutOfRange</t>
+  </si>
+  <si>
+    <t>Length is out of range.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_InvalidDataType</t>
+  </si>
+  <si>
+    <t>Invalid data type.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_InvalidIntegerSize</t>
+  </si>
+  <si>
+    <t>Invalid integer size.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_InvalidLengthSize</t>
+  </si>
+  <si>
+    <t>Invalid length size.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_InvalidRealSize</t>
+  </si>
+  <si>
+    <t>Invalid real size.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_InvalidSizeData</t>
+  </si>
+  <si>
+    <t>Invalid size data.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_InvalidUIDData</t>
+  </si>
+  <si>
+    <t>Invalid UID data.</t>
+  </si>
+  <si>
+    <t>BPListSerializer_Exception_NotBinaryPropertyListData</t>
+  </si>
+  <si>
+    <t>Not binary property list data.</t>
+  </si>
+  <si>
+    <t>BrowsableCollection_OutOfRange</t>
+  </si>
+  <si>
+    <t>Browse index is out of range of collection.</t>
+  </si>
+  <si>
+    <t>BrowseFileButton_Description_FileBrowsing</t>
+  </si>
+  <si>
+    <t>Occurs when file browsing</t>
+  </si>
+  <si>
+    <t>BrowseFileButton_Description_SelectedFileChanged</t>
+  </si>
+  <si>
+    <t>Occurs when SelectedFile changed.</t>
+  </si>
+  <si>
+    <t>BrowseFileButton_Description_Target</t>
+  </si>
+  <si>
+    <t>Set the text for the target control when selected file changed.</t>
+  </si>
+  <si>
+    <t>BrowseFolderButton_Description_FolderBrowsing</t>
+  </si>
+  <si>
+    <t>Occurs when folder browsing.</t>
+  </si>
+  <si>
+    <t>BrowseFolderButton_Description_SelectedPathChanged</t>
+  </si>
+  <si>
+    <t>Occurs when SelectedPath changed.</t>
+  </si>
+  <si>
+    <t>BrowseFolderButton_Description_Target</t>
+  </si>
+  <si>
+    <t>Set the text for the target control when selected path changed.</t>
+  </si>
+  <si>
+    <t>Bytes_ConvertToStringArray_Exception_InvalidByteArray</t>
+  </si>
+  <si>
+    <t>Byte array is invalid. A valid byte array must be divided by 2 and end with '\0'(0x0000)</t>
+  </si>
+  <si>
+    <t>Bytes_Exception_BytesContainsNull</t>
+  </si>
+  <si>
+    <t>Parameters lists contains null at index of {0}.</t>
+  </si>
+  <si>
+    <t>ByteStream_SeekBeforeBegin</t>
+  </si>
+  <si>
+    <t>An attempt was made to move the position before the beginning of the stream.</t>
+  </si>
+  <si>
+    <t>ByteStream_StreamTooLong</t>
+  </si>
+  <si>
+    <t>Stream was too long.</t>
+  </si>
+  <si>
+    <t>CacheTcpClient_Exception_Pattern</t>
+  </si>
+  <si>
+    <t>The pattern of the bytes must at least one byte.</t>
+  </si>
+  <si>
+    <t>Calculator_Allocate_PercentagesContainsNegative</t>
+  </si>
+  <si>
+    <t>Percentages contains negative values.</t>
+  </si>
+  <si>
+    <t>Calculator_Allocate_PercentagesTotalNotEqualsOne</t>
+  </si>
+  <si>
+    <t>Sum of percentages must equals 1.</t>
+  </si>
+  <si>
+    <t>Calculator_EnumContainsFlags_FlagsIsEmpty</t>
+  </si>
+  <si>
+    <t>Must specifies one or more checking flag(s).</t>
+  </si>
+  <si>
+    <t>ColumnModel_Exception_NameEmpty</t>
+  </si>
+  <si>
+    <t>Column name must not be empty.</t>
+  </si>
+  <si>
+    <t>ColumnModelCollection_Exception_NameExists</t>
+  </si>
+  <si>
+    <t>Column name already exists.</t>
+  </si>
+  <si>
+    <t>CompletionPort_Group_CouldNotSetPropertyDueToNoReady</t>
+  </si>
+  <si>
+    <t>Could not set property due to EngineGroup is not in ready status.</t>
+  </si>
+  <si>
+    <t>CompletionPort_Group_Disposed</t>
+  </si>
+  <si>
+    <t>EngineGroup already disposed.</t>
+  </si>
+  <si>
+    <t>CompletionPort_Group_IsNotReady</t>
+  </si>
+  <si>
+    <t>EngineGroup is not ready.</t>
+  </si>
+  <si>
+    <t>CompletionPort_Group_IsNotRunning</t>
+  </si>
+  <si>
+    <t>EngineGroup  is not running.</t>
+  </si>
+  <si>
+    <t>ConfirmButton_Description_SuppressDialogResult</t>
+  </si>
+  <si>
+    <t>Specifies whether suppress the system  function after click the button.</t>
+  </si>
+  <si>
+    <t>ConfirmButton_Description_Type</t>
+  </si>
+  <si>
+    <t>Set the confirm type in order to show system button text.</t>
+  </si>
+  <si>
+    <t>ContentType_Exception_InvalidSubType</t>
+  </si>
+  <si>
+    <t>Invalid sub type.</t>
+  </si>
+  <si>
+    <t>ContentType_Exception_InvalidType</t>
+  </si>
+  <si>
+    <t>Invalid type.</t>
+  </si>
+  <si>
+    <t>ControlManager_Exception_TypeIsNotEnum</t>
+  </si>
+  <si>
+    <t>Type is not a enumeration type.</t>
+  </si>
+  <si>
+    <t>CRC16_Exception_InvalidString</t>
+  </si>
+  <si>
+    <t>Invalid String.</t>
+  </si>
+  <si>
+    <t>CRC16List_Exception_InvalidString</t>
+  </si>
+  <si>
+    <t>CRC32_Exception_InvalidString</t>
+  </si>
+  <si>
+    <t>CRC32List_Exception_InvalidString</t>
+  </si>
+  <si>
+    <t>Cryptography_Exceiption_InvalidIV</t>
+  </si>
+  <si>
+    <t>Invalid IV.</t>
+  </si>
+  <si>
+    <t>Cryptography_Exceiption_InvalidKey</t>
+  </si>
+  <si>
+    <t>Invalid Key.</t>
+  </si>
+  <si>
+    <t>Cryptography_QuotedPrintable_Exception_InvalidText</t>
+  </si>
+  <si>
+    <t>Invalid QuotedPrintable text.</t>
+  </si>
+  <si>
+    <t>CSVReader_Exception_DataCountMismatch</t>
+  </si>
+  <si>
+    <t>Data count does not equals to header.</t>
+  </si>
+  <si>
+    <t>CSVReader_Exception_ExceptCharacter</t>
+  </si>
+  <si>
+    <t>Except character '{0}' on column {1}.</t>
+  </si>
+  <si>
+    <t>CSVReader_Exception_InvalidCharacter</t>
+  </si>
+  <si>
+    <t>Invalid character '{0}' found on column {1}.</t>
+  </si>
+  <si>
+    <t>CSVReader_Exception_InvalidCSVFormat</t>
+  </si>
+  <si>
+    <t>Invalid CSV File format.</t>
+  </si>
+  <si>
+    <t>CSVReader_Exception_InvalidRecord</t>
+  </si>
+  <si>
+    <t>Current record type is not header or data.</t>
+  </si>
+  <si>
+    <t>CSVReader_Exception_NotRead</t>
+  </si>
+  <si>
+    <t>Stream has not begun to read.</t>
+  </si>
+  <si>
+    <t>CSVWriter_Exception_ColumnCountMismatch</t>
+  </si>
+  <si>
+    <t>Column count mismatch.</t>
+  </si>
+  <si>
+    <t>DatabaseHelp_Exception_ParametersCountDoesNotMatch</t>
+  </si>
+  <si>
+    <t>Parameters count does not match.</t>
+  </si>
+  <si>
+    <t>DatabaseRepository_Exception_NotInContext</t>
+  </si>
+  <si>
+    <t>Execute does not under context.</t>
+  </si>
+  <si>
+    <t>DatabaseService_Exception_ForeignKeyNotFound</t>
+  </si>
+  <si>
+    <t>Foreign key could not be found.</t>
+  </si>
+  <si>
+    <t>DatabaseService_Exception_InvalidRelationship</t>
+  </si>
+  <si>
+    <t>Invalid relationship.</t>
+  </si>
+  <si>
+    <t>DatabaseService_UnknownType</t>
+  </si>
+  <si>
+    <t>Unknown type.</t>
+  </si>
+  <si>
+    <t>DataGrid_Exception_ColumnNotFound</t>
+  </si>
+  <si>
+    <t>Column "{0}" could not be found.</t>
+  </si>
+  <si>
+    <t>DataGrid_Exception_ColumnNotMatch</t>
+  </si>
+  <si>
+    <t>Item count does not match with columns.</t>
+  </si>
+  <si>
+    <t>DataHandler_CanNotAccess</t>
+  </si>
+  <si>
+    <t>DataHandler's internal buffer cannot be accessed.</t>
+  </si>
+  <si>
+    <t>DataHandler_Exception_ObjectNotSupport</t>
+  </si>
+  <si>
+    <t>Read/Write Object only support for sequential layout with 1 pack.</t>
+  </si>
+  <si>
+    <t>DataHandler_OutOfBytes</t>
+  </si>
+  <si>
+    <t>Not enough bytes space.</t>
+  </si>
+  <si>
+    <t>DbSelectCommandTextBuilder_Exception_Aggregate</t>
+  </si>
+  <si>
+    <t>Aggregate select requires only one column.</t>
+  </si>
+  <si>
+    <t>Directory_Exception_FileInPath</t>
+  </si>
+  <si>
+    <t>There are one or more files exist in the path.</t>
+  </si>
+  <si>
+    <t>Directory_Exception_PathIsInvalid</t>
+  </si>
+  <si>
+    <t>Path is invalid.</t>
+  </si>
+  <si>
+    <t>EntityCache_Exception_KeyAlreadyExist</t>
+  </si>
+  <si>
+    <t>Key already exists.</t>
+  </si>
+  <si>
+    <t>EntityCache_Exception_KeyNameNotFound</t>
+  </si>
+  <si>
+    <t>Key name could not be found.</t>
+  </si>
+  <si>
+    <t>EnumerationChooseBox_Exception_ValueIsNotEnum</t>
+  </si>
+  <si>
+    <t>Value is not an enumeration with flag attribute and drivered from Int32.</t>
+  </si>
+  <si>
+    <t>Evaluator_Exception_ExpectedType</t>
+  </si>
+  <si>
+    <t>Expected {0} for default value.</t>
+  </si>
+  <si>
+    <t>Evaluator_Exception_InvalidRangeExpression</t>
+  </si>
+  <si>
+    <t>{0} range expression at {1} is invalid.</t>
+  </si>
+  <si>
+    <t>Evaluator_Exception_InvalidTInput</t>
+  </si>
+  <si>
+    <t>Invalid input type, only accept {0}.</t>
+  </si>
+  <si>
+    <t>Evaluator_Exception_InvalidTOutput</t>
+  </si>
+  <si>
+    <t>Invalid output type, only accept {0}.</t>
+  </si>
+  <si>
+    <t>Evaluator_Exception_NullRangeExpression</t>
+  </si>
+  <si>
+    <t>Range expression at {0} is null.</t>
+  </si>
+  <si>
+    <t>EventTcpClient_Exception_Connected</t>
+  </si>
+  <si>
+    <t>Client has already connected.</t>
+  </si>
+  <si>
+    <t>FastSerializerManager_UnsupportType</t>
+  </si>
+  <si>
+    <t>Unsupport type "{0}"</t>
+  </si>
+  <si>
+    <t>FatBinary_Exception_InvalidMachObject</t>
+  </si>
+  <si>
+    <t>Invalid FatBinary data.</t>
+  </si>
+  <si>
+    <t>File_Invalid</t>
+  </si>
+  <si>
+    <t>File Invalid.</t>
+  </si>
+  <si>
+    <t>File_Null</t>
+  </si>
+  <si>
+    <t>File should not be null.</t>
+  </si>
+  <si>
+    <t>FileStream_Exception_DoesNotReadExpectedSize</t>
+  </si>
+  <si>
+    <t>Read data size does not equal to expected.</t>
+  </si>
+  <si>
+    <t>FileStream_NeedWriteData</t>
+  </si>
+  <si>
+    <t>Need write data rights.</t>
+  </si>
+  <si>
+    <t>FileStream_NotSupportRead</t>
+  </si>
+  <si>
+    <t>Read operation isn't supported.</t>
+  </si>
+  <si>
+    <t>FileStream_NotSupportWrite</t>
+  </si>
+  <si>
+    <t>Write operation isn't supported.</t>
+  </si>
+  <si>
+    <t>Folder_Invalid</t>
+  </si>
+  <si>
+    <t>Folder Invalid.</t>
+  </si>
+  <si>
+    <t>Folder_Null</t>
+  </si>
+  <si>
+    <t>Folder should not null.</t>
+  </si>
+  <si>
+    <t>FolderListView_DetailsColumn_RequiresName</t>
+  </si>
+  <si>
+    <t>Details must display "Name" column.</t>
+  </si>
+  <si>
+    <t>HexCode_Exception_InvalidLiteralCode</t>
+  </si>
+  <si>
+    <t>Invalid literal code, it should be even length.</t>
+  </si>
+  <si>
+    <t>HexTextBox_Exception_CouldNotSetFont</t>
+  </si>
+  <si>
+    <t>Could not set Font for HexTextBox.</t>
+  </si>
+  <si>
+    <t>HexTextBox_Exception_CouldNotSetMaxLength</t>
+  </si>
+  <si>
+    <t>Could not set MaxLength for HexTextBox.</t>
+  </si>
+  <si>
+    <t>HexTextBox_Exception_CouldNotSetShortcutsEnabled</t>
+  </si>
+  <si>
+    <t>Could not set ShortcutsEnabled for HexTextBox.</t>
+  </si>
+  <si>
+    <t>HexTextBox_Exception_CouldNotSetText</t>
+  </si>
+  <si>
+    <t>Could not set Text for HexTextBox.</t>
+  </si>
+  <si>
+    <t>HttpAddress_Exception_Path_Invalid</t>
+  </si>
+  <si>
+    <t>HttpAddress_Exception_QueryString_Invalid</t>
+  </si>
+  <si>
+    <t>QueryString is invalid.</t>
+  </si>
+  <si>
+    <t>IconGroup_CompressionNotSupport</t>
+  </si>
+  <si>
+    <t>Does not support compression image.</t>
+  </si>
+  <si>
+    <t>IconGroup_Empty</t>
+  </si>
+  <si>
+    <t>Icon group is empty.</t>
+  </si>
+  <si>
+    <t>IconGroup_FormatExist</t>
+  </si>
+  <si>
+    <t>Format already exists.</t>
+  </si>
+  <si>
+    <t>IconGroup_InvalidFormat</t>
+  </si>
+  <si>
+    <t>Invalid format</t>
+  </si>
+  <si>
+    <t>IconGroup_InvalidHeight</t>
+  </si>
+  <si>
+    <t>Invalid height.</t>
+  </si>
+  <si>
+    <t>IconGroup_InvalidImageData</t>
+  </si>
+  <si>
+    <t>Invalid image data.</t>
+  </si>
+  <si>
+    <t>IconGroup_InvalidWidth</t>
+  </si>
+  <si>
+    <t>Invalid width.</t>
+  </si>
+  <si>
+    <t>IconGroup_PaletteNotMatch</t>
+  </si>
+  <si>
+    <t>Palette does not match.</t>
+  </si>
+  <si>
+    <t>IndexModel_Exception_NameEmpty</t>
+  </si>
+  <si>
+    <t>Index name must not be empty.</t>
+  </si>
+  <si>
+    <t>InternetPoint_Exception_AddressFamilyNotMatch</t>
+  </si>
+  <si>
+    <t>Address family must be same.</t>
+  </si>
+  <si>
+    <t>InternetPoint_Exception_AddressFamilyNotSupport</t>
+  </si>
+  <si>
+    <t>Address family does not support.</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_ComponentNotSupportService</t>
+  </si>
+  <si>
+    <t>The service "{0}" is not assignable from component "{1}".</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_ConstructNotFound</t>
+  </si>
+  <si>
+    <t>Construct could not be found.</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_InvalidRegisteringStatus</t>
+  </si>
+  <si>
+    <t>Could not perform Register() in current status.</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_InvalidResolvingStatus</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_LifeCycleNotSupport</t>
+  </si>
+  <si>
+    <t>LifeCycle value does not support.</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_ServiceExists</t>
+  </si>
+  <si>
+    <t>Service already exists.</t>
+  </si>
+  <si>
+    <t>IocContainer_Exception_ServiceNotRegistered</t>
+  </si>
+  <si>
+    <t>Service is not registered.</t>
+  </si>
+  <si>
+    <t>IPAddressControl_Exception_IPAddressInvalid</t>
+  </si>
+  <si>
+    <t>IPAddress is an invalid Internet address(IPv4).</t>
+  </si>
+  <si>
+    <t>IPAddressManager_Exception_CouldNotConvertToIPv4</t>
+  </si>
+  <si>
+    <t>Could not convert to IPv4 address</t>
+  </si>
+  <si>
+    <t>IPAddressManager_Exception_InvalidAddressFamily</t>
+  </si>
+  <si>
+    <t>Invalid address family.</t>
+  </si>
+  <si>
+    <t>IPAddressManager_Exception_MustBothIPv4OrIPv6</t>
+  </si>
+  <si>
+    <t>Begin IP address and End IP address must be both IPv4 or IPv6</t>
+  </si>
+  <si>
+    <t>IPAddressRange_Exception_AddressFamilyMustBeSame</t>
+  </si>
+  <si>
+    <t>IPAddressRange_Exception_BeginLargerThanEnd</t>
+  </si>
+  <si>
+    <t>Begin IP larger than end IP.</t>
+  </si>
+  <si>
+    <t>IPAddressRange_Exception_BytesInvalid</t>
+  </si>
+  <si>
+    <t>Bytes invalid.</t>
+  </si>
+  <si>
+    <t>IPAddressRange_Exception_UpperLesserThanLower</t>
+  </si>
+  <si>
+    <t>End ip address must larger than begin ip address.</t>
+  </si>
+  <si>
+    <t>IPAddressRangeCollection_Exception_AddressFamilyNotSupport</t>
+  </si>
+  <si>
+    <t>AddressFamily does not support.</t>
+  </si>
+  <si>
+    <t>IPAddressRangeCollection_Exception_ItemAddressFamilyNotMatch</t>
+  </si>
+  <si>
+    <t>Inserting item address family does not match.</t>
+  </si>
+  <si>
+    <t>IPMapping_Exception_OnlySupportInterNetwork</t>
+  </si>
+  <si>
+    <t>Only support Inter network (IPv4).</t>
+  </si>
+  <si>
+    <t>Job_Exception_HasLaunched</t>
+  </si>
+  <si>
+    <t>Job has launched.</t>
+  </si>
+  <si>
+    <t>Job_Exception_ThreadExists</t>
+  </si>
+  <si>
+    <t>Thread already exists.</t>
+  </si>
+  <si>
+    <t>JSON_ArrayTypeNotSupported</t>
+  </si>
+  <si>
+    <t>Type '{0}' is not supported for deserialization of an array.</t>
+  </si>
+  <si>
+    <t>JSON_BadEscape</t>
+  </si>
+  <si>
+    <t>Unrecognized escape sequence.</t>
+  </si>
+  <si>
+    <t>JSON_CannotConvertObjectToType</t>
+  </si>
+  <si>
+    <t>Cannot convert object of type '{0}' to type '{1}'</t>
+  </si>
+  <si>
+    <t>JSON_CannotCreateListType</t>
+  </si>
+  <si>
+    <t>Cannot create instance of {0}.</t>
+  </si>
+  <si>
+    <t>JSON_CircularReference</t>
+  </si>
+  <si>
+    <t>A circular reference was detected while serializing an object of type '{0}'.</t>
+  </si>
+  <si>
+    <t>JSON_DepthLimitExceeded</t>
+  </si>
+  <si>
+    <t>RecursionLimit exceeded.</t>
+  </si>
+  <si>
+    <t>JSON_DeserializerTypeMismatch</t>
+  </si>
+  <si>
+    <t>Cannot deserialize object graph into type of '{0}'.</t>
+  </si>
+  <si>
+    <t>JSON_DictionaryTypeNotSupported</t>
+  </si>
+  <si>
+    <t>Type '{0}' is not supported for serialization/deserialization of a dictionary, keys must be strings or objects.</t>
+  </si>
+  <si>
+    <t>JSON_ExpectedOpenBrace</t>
+  </si>
+  <si>
+    <t>Invalid object passed in, '{' expected.</t>
+  </si>
+  <si>
+    <t>JSON_IllegalPrimitive</t>
+  </si>
+  <si>
+    <t>Invalid JSON primitive: {0}.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidArrayEnd</t>
+  </si>
+  <si>
+    <t>Invalid array passed in, ']' expected.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidArrayExpectComma</t>
+  </si>
+  <si>
+    <t>Invalid array passed in, ',' expected.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidArrayExtraComma</t>
+  </si>
+  <si>
+    <t>Invalid array passed in, extra trailing ','.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidArrayStart</t>
+  </si>
+  <si>
+    <t>Invalid array passed in, '[' expected.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidEnumType</t>
+  </si>
+  <si>
+    <t>Enums based on System.Int64 or System.UInt64 are not JSON-serializable because JavaScript does not support the necessary precision.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidMaxJsonLength</t>
+  </si>
+  <si>
+    <t>Value must be a positive integer.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidMemberName</t>
+  </si>
+  <si>
+    <t>Invalid object passed in, member name expected.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidObject</t>
+  </si>
+  <si>
+    <t>Invalid object passed in, ':' or '}' expected.</t>
+  </si>
+  <si>
+    <t>JSON_InvalidRecursionLimit</t>
+  </si>
+  <si>
+    <t>RecursionLimit must be a positive integer.</t>
+  </si>
+  <si>
+    <t>JSON_MaxJsonLengthExceeded</t>
+  </si>
+  <si>
+    <t>Error during serialization or deserialization using the JSON JavaScriptSerializer. The length of the string exceeds the value set on the maxJsonLength property.</t>
+  </si>
+  <si>
+    <t>JSON_NoConstructor</t>
+  </si>
+  <si>
+    <t>No parameterless constructor defined for type of '{0}'.</t>
+  </si>
+  <si>
+    <t>JSON_StringNotQuoted</t>
+  </si>
+  <si>
+    <t>Invalid string passed in, '\"' expected.</t>
+  </si>
+  <si>
+    <t>JSON_UnterminatedString</t>
+  </si>
+  <si>
+    <t>Unterminated string passed in.</t>
+  </si>
+  <si>
+    <t>JSON_ValueTypeCannotBeNull</t>
+  </si>
+  <si>
+    <t>Cannot convert null to a value type.</t>
+  </si>
+  <si>
+    <t>Logger_Exception_NotInitialize</t>
+  </si>
+  <si>
+    <t>Logger does not initialize.</t>
+  </si>
+  <si>
+    <t>MD5Code_Exception_InvalidBytes</t>
+  </si>
+  <si>
+    <t>Invalid MD5Code bytes.</t>
+  </si>
+  <si>
+    <t>MD5Code_Exception_InvalidText</t>
+  </si>
+  <si>
+    <t>Invalid MD5Code string.</t>
+  </si>
+  <si>
+    <t>MimeEntity_Exception_UnknownEntity</t>
+  </si>
+  <si>
+    <t>Unknown entity or invalid entity.</t>
+  </si>
+  <si>
+    <t>NanoEngine_DatabaseISOpen</t>
+  </si>
+  <si>
+    <t>Database already open.</t>
+  </si>
+  <si>
+    <t>NanoEngine_Exception_DatabaseInvalid</t>
+  </si>
+  <si>
+    <t>Database is invalid.</t>
+  </si>
+  <si>
+    <t>NanoEngine_Exception_IdNotAlloc</t>
+  </si>
+  <si>
+    <t>Id does not alloc, call AllocId() first.</t>
+  </si>
+  <si>
+    <t>NanoEngine_Exception_StatusAreSame</t>
+  </si>
+  <si>
+    <t>Original status and new status are same.</t>
+  </si>
+  <si>
+    <t>NanoEngine_Exception_TypeNotSupport</t>
+  </si>
+  <si>
+    <t>Type does not support.</t>
+  </si>
+  <si>
+    <t>NanoEngine_IdAllocated</t>
+  </si>
+  <si>
+    <t>Record id has already allocated.</t>
+  </si>
+  <si>
+    <t>NanoEngine_IdFull</t>
+  </si>
+  <si>
+    <t>NanoRecord id has fulled.</t>
+  </si>
+  <si>
+    <t>NanoEngine_RecordCountOutOfPointerCapacity</t>
+  </si>
+  <si>
+    <t>Record count out of pointer capacity.</t>
+  </si>
+  <si>
+    <t>NanoEngine_RecordNotFound</t>
+  </si>
+  <si>
+    <t>Record with id {0} is not found.</t>
+  </si>
+  <si>
+    <t>NanoEngine_RecordTypeInvalid</t>
+  </si>
+  <si>
+    <t>Record type invalid, id {0} does not belong to {1}.</t>
+  </si>
+  <si>
+    <t>NanoEngine_TypesOutOfRange</t>
+  </si>
+  <si>
+    <t>Only support 1-255 types</t>
+  </si>
+  <si>
+    <t>NanoRecord_Exception_RecordHasDeleted</t>
+  </si>
+  <si>
+    <t>Record has deleted.</t>
+  </si>
+  <si>
+    <t>NanoRecord_InvalidProperty</t>
+  </si>
+  <si>
+    <t>NanoRecord contains illegal property which not support.</t>
+  </si>
+  <si>
+    <t>NanoRecord_OutOfCapacity</t>
+  </si>
+  <si>
+    <t>NanoRecord has too much data member.</t>
+  </si>
+  <si>
+    <t>NavigationStrip_Category_BorderStyle</t>
+  </si>
+  <si>
+    <t>Appearance</t>
+  </si>
+  <si>
+    <t>NavigationStrip_Category_SelectedIndexChanged</t>
+  </si>
+  <si>
+    <t>Behavior</t>
+  </si>
+  <si>
+    <t>NavigationStrip_Description_BorderStyle</t>
+  </si>
+  <si>
+    <t>Indicates whether the panel should have a border.</t>
+  </si>
+  <si>
+    <t>NavigationStrip_Description_SelectedIndexChanged</t>
+  </si>
+  <si>
+    <t>Occurs when the value of the SelectedIndex property changes.</t>
+  </si>
+  <si>
+    <t>Netpath_Invalid</t>
+  </si>
+  <si>
+    <t>Netpath invalid.</t>
+  </si>
+  <si>
+    <t>NetworkCredential_KeyInvalid</t>
+  </si>
+  <si>
+    <t>A AES key must be 16 bytes(128 bit).</t>
+  </si>
+  <si>
+    <t>NetworkServer_Exception_HostIsNull</t>
+  </si>
+  <si>
+    <t>Host is null.</t>
+  </si>
+  <si>
+    <t>NetworkServer_Exception_InvalidExpression</t>
+  </si>
+  <si>
+    <t>Invalid Expression.</t>
+  </si>
+  <si>
+    <t>NetworkServer_Exception_InvalidHost</t>
+  </si>
+  <si>
+    <t>Host is invalid.</t>
+  </si>
+  <si>
+    <t>NetworkService_Exception_InvalidPort</t>
+  </si>
+  <si>
+    <t>Service port is invalid.</t>
+  </si>
+  <si>
+    <t>NetworkServiceCollection_Exception_ServiceExist</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display_File</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display_Folder</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display_Hidden</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Execute</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Open</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Parent</t>
+  </si>
+  <si>
+    <t>Up to Parent</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Refresh</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Sort</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Sort_Ascending</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Sort_Descending</t>
+  </si>
+  <si>
+    <t>Descending</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_Details</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_LargeIcon</t>
+  </si>
+  <si>
+    <t>Large Icon</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_List</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_SmallIcon</t>
+  </si>
+  <si>
+    <t>Small Icon</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Exception_InvalidFilters</t>
+  </si>
+  <si>
+    <t>Filter string you provided is not valid. The filter string must contain a description of the filter, followed by the vertical bar (|) and the filter pattern. The strings for different filtering options must also be separated by the vertical bar. Example: "Text files (*.txt)|*.txt|All files (*.*)|*.*"</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Filters</t>
+  </si>
+  <si>
+    <t>Filters:</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Paths</t>
+  </si>
+  <si>
+    <t>Paths:</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Text</t>
+  </si>
+  <si>
+    <t>Open Folder/File</t>
+  </si>
+  <si>
+    <t>OwnerDrawListView_CanNotSetItemHeight</t>
+  </si>
+  <si>
+    <t>Can not set item height will handle created.</t>
+  </si>
+  <si>
+    <t>OwnerDrawTabControl_Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>OwnerDrawTabControl_Exception_NotOwnerDrawTabPage</t>
+  </si>
+  <si>
+    <t>Only could add OwnerTabPage or its subclass.</t>
+  </si>
+  <si>
+    <t>PagingControl_TextTemplate_Item</t>
+  </si>
+  <si>
+    <t>Item: {0}-{1}/{2}</t>
+  </si>
+  <si>
+    <t>PagingControl_TextTemplate_Page</t>
+  </si>
+  <si>
+    <t>Page: {0}/{1}</t>
+  </si>
+  <si>
+    <t>Path_Invalid</t>
+  </si>
+  <si>
+    <t>Invalid path.</t>
+  </si>
+  <si>
+    <t>Path_LevelNotEnough</t>
+  </si>
+  <si>
+    <t>Directory do not contains enough parent level.</t>
+  </si>
+  <si>
+    <t>PE_Exception_InvalidDotNetPE</t>
+  </si>
+  <si>
+    <t>Invalid .net PE data</t>
+  </si>
+  <si>
+    <t>PE_Exception_InvalidPE</t>
+  </si>
+  <si>
+    <t>Invalid PE data.</t>
+  </si>
+  <si>
+    <t>PE_Exception_ManifestResourceNotFound</t>
+  </si>
+  <si>
+    <t>Specified manifest resource could not been found.</t>
+  </si>
+  <si>
+    <t>PE_Exception_NotSupportedDotNetPE</t>
+  </si>
+  <si>
+    <t>.Net PE contains not supported data.</t>
+  </si>
+  <si>
+    <t>Picture_Number_Invalid</t>
+  </si>
+  <si>
+    <t>Invalid literal number.</t>
+  </si>
+  <si>
+    <t>PortTextBox_Text_NotSupport</t>
+  </si>
+  <si>
+    <t>Use "Port" property instead of "Text".</t>
+  </si>
+  <si>
+    <t>RegexElement_Invalid</t>
+  </si>
+  <si>
+    <t>Invalid element.</t>
+  </si>
+  <si>
+    <t>RegexElement_LookbehindAssertion_Invalid</t>
+  </si>
+  <si>
+    <t>Could not set RegexTerminalAssertion as lookbehind assertion.</t>
+  </si>
+  <si>
+    <t>RegexQuantifierElement_NotAcceptElements</t>
+  </si>
+  <si>
+    <t>Not accept RegexLiteralElement or RegexQuantifierElement as matching part.</t>
+  </si>
+  <si>
+    <t>ReliableUdpClient_Exception_InvalidRing</t>
+  </si>
+  <si>
+    <t>Invalid ring. ring value must between 1 to 65534</t>
+  </si>
+  <si>
+    <t>ReliableUdpConsole_Exception_ClientManaged</t>
+  </si>
+  <si>
+    <t>Client already managed.</t>
+  </si>
+  <si>
+    <t>ReliableUdpConsole_Exception_ClientNotManaged</t>
+  </si>
+  <si>
+    <t>Client does not manage.</t>
+  </si>
+  <si>
+    <t>Server_Exception_IsNotRunning</t>
+  </si>
+  <si>
+    <t>Server isn't running</t>
+  </si>
+  <si>
+    <t>Server_Exception_IsRunning</t>
+  </si>
+  <si>
+    <t>Server is running.</t>
+  </si>
+  <si>
+    <t>Server_MustRunning</t>
+  </si>
+  <si>
+    <t>Server not running, please call Start() method first.</t>
+  </si>
+  <si>
+    <t>Server_Running</t>
+  </si>
+  <si>
+    <t>Server is running!</t>
+  </si>
+  <si>
+    <t>ShellImageList_Exception_InvalidExtension</t>
+  </si>
+  <si>
+    <t>Invalid extension.</t>
+  </si>
+  <si>
+    <t>SortedCollection_Exception_Insert</t>
+  </si>
+  <si>
+    <t>Could not insert a item in specified index, please use add instead.</t>
+  </si>
+  <si>
+    <t>SortedCollection_Exception_SetItem</t>
+  </si>
+  <si>
+    <t>Could not set item for a SortCollection</t>
+  </si>
+  <si>
+    <t>StronglyTypedRowGenerator_RequiredColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must at lease contains one column. </t>
+  </si>
+  <si>
+    <t>StronglyTypedTableGenerator_RequiredColumn</t>
+  </si>
+  <si>
+    <t>SwitchControl_Exception_MustBeSwitchPage</t>
+  </si>
+  <si>
+    <t>Control must be switch panel.</t>
+  </si>
+  <si>
+    <t>SystemChangeNotifier_ArgumentException_PIDLExist</t>
+  </si>
+  <si>
+    <t>The PIDL is moniting.</t>
+  </si>
+  <si>
+    <t>TableModel_Exception_NameEmpty</t>
+  </si>
+  <si>
+    <t>Table name must not be empty.</t>
+  </si>
+  <si>
+    <t>TableModel_Exception_SchemaEmpty</t>
+  </si>
+  <si>
+    <t>Table schema must not be empty.</t>
+  </si>
+  <si>
+    <t>TableModelCollection_Exception_NameExists</t>
+  </si>
+  <si>
+    <t>Table name already exists.</t>
+  </si>
+  <si>
+    <t>TableSet_Exception_ColumnsEmpty</t>
+  </si>
+  <si>
+    <t>Column could not be empty.</t>
+  </si>
+  <si>
+    <t>TableSet_Exception_EntityIsNull</t>
+  </si>
+  <si>
+    <t>Entity could not be null when specify condition columns.</t>
+  </si>
+  <si>
+    <t>TableSet_Exception_InvalidPropertyName</t>
+  </si>
+  <si>
+    <t>Invalid property name.</t>
+  </si>
+  <si>
+    <t>TcpClient_Exception_Connected</t>
+  </si>
+  <si>
+    <t>TcpClient_Exception_NotFoundPattern</t>
+  </si>
+  <si>
+    <t>Could not find end pattern bytes in buffer.</t>
+  </si>
+  <si>
+    <t>ThreadHook_HookType_NotSupport</t>
+  </si>
+  <si>
+    <t>This HookType does not support in ThreadHook. You must consider using a GlobalHook class</t>
+  </si>
+  <si>
+    <t>TreeListView_Exception_NodeIsNotCollectionContainer</t>
+  </si>
+  <si>
+    <t>Node is not a collection container.</t>
+  </si>
+  <si>
+    <t>TreeListViewNode_Exception_DataIsNotCollectionContainer</t>
+  </si>
+  <si>
+    <t>Data is not a collection container.</t>
+  </si>
+  <si>
+    <t>Updating_Exception_InvalidEndUpdate</t>
+  </si>
+  <si>
+    <t>You must call BeginUpdate() Method before.</t>
+  </si>
+  <si>
+    <t>ValidationInfo_Exception_ExpressionEmpty</t>
+  </si>
+  <si>
+    <t>Expression is empty.</t>
+  </si>
+  <si>
+    <t>ValidationItemCollection_Exception_ItemExist</t>
+  </si>
+  <si>
+    <t>Item exist.</t>
+  </si>
+  <si>
+    <t>ValidationItemCollection_Exception_ItemNotFound</t>
+  </si>
+  <si>
+    <t>Item not found.</t>
+  </si>
+  <si>
+    <t>Validator_ActionList_Tasks</t>
+  </si>
+  <si>
+    <t>Validator Tasks</t>
+  </si>
+  <si>
+    <t>Validator_ActionList_Tasks_ClearValidationInformation</t>
+  </si>
+  <si>
+    <t>Clear Validation Information</t>
+  </si>
+  <si>
+    <t>Validator_Category_BlinkRate</t>
+  </si>
+  <si>
+    <t>Error Provider</t>
+  </si>
+  <si>
+    <t>Validator_Category_BlinkStyle</t>
+  </si>
+  <si>
+    <t>Validator_Category_CustomValidation</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Validator_Category_Icon</t>
+  </si>
+  <si>
+    <t>Validator_Category_RightToLeft</t>
+  </si>
+  <si>
+    <t>Validator_Category_Validation</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Validator_ClearWarning</t>
+  </si>
+  <si>
+    <t>Do you want to clear all validation information from current binding controls?</t>
+  </si>
+  <si>
+    <t>Validator_DefaultErrorMesage</t>
+  </si>
+  <si>
+    <t>An error occurred.</t>
+  </si>
+  <si>
+    <t>Validator_Description_BlinkRate</t>
+  </si>
+  <si>
+    <t>The rate in milliseconds at which the error icon blinks.</t>
+  </si>
+  <si>
+    <t>Validator_Description_BlinkStyle</t>
+  </si>
+  <si>
+    <t>Controls whether the error icon blinks when an error is set.</t>
+  </si>
+  <si>
+    <t>Validator_Description_CustomValidation</t>
+  </si>
+  <si>
+    <t>Occurs when validate, it required set "Custom" validation type flag.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Form</t>
+  </si>
+  <si>
+    <t>Validate all configured validation information controls which lay onto the specified container, when the container is closing.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Icon</t>
+  </si>
+  <si>
+    <t>The icon used to indicate an error.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Mode</t>
+  </si>
+  <si>
+    <t>Validation mode. This mode should be combined with the follow value. FocusChange: Can change to next control when validation fail. Submit:Validate control when user submit.</t>
+  </si>
+  <si>
+    <t>Validator_Description_RightToLeft</t>
+  </si>
+  <si>
+    <t>Indicates whether the component should draw right-to-left for RTL languages.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Validation_ErrorMesage</t>
+  </si>
+  <si>
+    <t>Specify a message to been show when control violate regular expression rule(text isn't match regular express).</t>
+  </si>
+  <si>
+    <t>Validator_Description_Validation_RegularExpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify regular expression for validation. This property only valid if sets RegularExpression validation type. </t>
+  </si>
+  <si>
+    <t>Validator_Description_Validation_RegularExpressionOptions</t>
+  </si>
+  <si>
+    <t>Specify options for regular expression.</t>
+  </si>
+  <si>
+    <t>Validator_Name</t>
+  </si>
+  <si>
+    <t>Validator</t>
+  </si>
+  <si>
+    <t>Validator_RemoveWarning</t>
+  </si>
+  <si>
+    <t>Do you want to remove validation information associate with this control?</t>
+  </si>
+  <si>
+    <t>ValueRange_Exception_UpperLesserThanLower</t>
+  </si>
+  <si>
+    <t>End value must larger than begin value.</t>
+  </si>
+  <si>
+    <t>Variable16_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 2.</t>
+  </si>
+  <si>
+    <t>Variable32_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 4.</t>
+  </si>
+  <si>
+    <t>Variable64_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 8.</t>
+  </si>
+  <si>
+    <t>Variable8_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 1.</t>
+  </si>
+  <si>
+    <t>VirtualItemCollection_ItemHasParent</t>
+  </si>
+  <si>
+    <t>This item belong to another item.</t>
+  </si>
+  <si>
+    <t>VirtualListView_Category_VirtualListSizeChanged</t>
+  </si>
+  <si>
+    <t>Property Changed</t>
+  </si>
+  <si>
+    <t>VirtualListView_Description_VirtualListSizeChanged</t>
+  </si>
+  <si>
+    <t>Occurs whenever the 'VirtualListSize' property for this ListView changed.</t>
+  </si>
+  <si>
+    <t>WebClient_Exception_InvalidChunkedBody</t>
+  </si>
+  <si>
+    <t>Invalid chunked body.</t>
+  </si>
+  <si>
+    <t>Bytes_Exception_InvalidHexText</t>
+  </si>
+  <si>
+    <t>Invalid hex text.</t>
+  </si>
+  <si>
+    <t>Bytes_Exception_InvalidHexChar</t>
+  </si>
+  <si>
+    <t>Fail to parse hex string for '{0}'.</t>
+  </si>
+  <si>
+    <t>Could not perform Resolve() in current status.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1693,8 +3338,157 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线 Light"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1707,8 +3501,181 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1716,9 +3683,242 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1734,8 +3934,50 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="42"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2053,13 +4295,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2106,6 +4348,2246 @@
       </c>
       <c r="B4" s="5" t="s">
         <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>559</v>
+      </c>
+      <c r="B12" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B13" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>565</v>
+      </c>
+      <c r="B15" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>571</v>
+      </c>
+      <c r="B18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>573</v>
+      </c>
+      <c r="B19" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>575</v>
+      </c>
+      <c r="B20" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>577</v>
+      </c>
+      <c r="B21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>579</v>
+      </c>
+      <c r="B22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>581</v>
+      </c>
+      <c r="B23" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>583</v>
+      </c>
+      <c r="B24" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B25" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>587</v>
+      </c>
+      <c r="B26" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>589</v>
+      </c>
+      <c r="B27" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>591</v>
+      </c>
+      <c r="B28" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>593</v>
+      </c>
+      <c r="B29" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>597</v>
+      </c>
+      <c r="B33" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>599</v>
+      </c>
+      <c r="B34" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>601</v>
+      </c>
+      <c r="B35" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>603</v>
+      </c>
+      <c r="B36" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>605</v>
+      </c>
+      <c r="B37" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>609</v>
+      </c>
+      <c r="B39" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>611</v>
+      </c>
+      <c r="B40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>613</v>
+      </c>
+      <c r="B41" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>615</v>
+      </c>
+      <c r="B42" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>617</v>
+      </c>
+      <c r="B43" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>619</v>
+      </c>
+      <c r="B44" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>621</v>
+      </c>
+      <c r="B45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>623</v>
+      </c>
+      <c r="B46" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>625</v>
+      </c>
+      <c r="B47" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>627</v>
+      </c>
+      <c r="B48" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>629</v>
+      </c>
+      <c r="B49" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>631</v>
+      </c>
+      <c r="B50" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>633</v>
+      </c>
+      <c r="B51" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>634</v>
+      </c>
+      <c r="B52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>635</v>
+      </c>
+      <c r="B53" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>638</v>
+      </c>
+      <c r="B55" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>640</v>
+      </c>
+      <c r="B56" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>642</v>
+      </c>
+      <c r="B57" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>644</v>
+      </c>
+      <c r="B58" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>646</v>
+      </c>
+      <c r="B59" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>648</v>
+      </c>
+      <c r="B60" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>650</v>
+      </c>
+      <c r="B61" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>652</v>
+      </c>
+      <c r="B62" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>654</v>
+      </c>
+      <c r="B63" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>656</v>
+      </c>
+      <c r="B64" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>658</v>
+      </c>
+      <c r="B65" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>660</v>
+      </c>
+      <c r="B66" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>662</v>
+      </c>
+      <c r="B67" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>664</v>
+      </c>
+      <c r="B68" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>666</v>
+      </c>
+      <c r="B69" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>668</v>
+      </c>
+      <c r="B70" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>670</v>
+      </c>
+      <c r="B71" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>672</v>
+      </c>
+      <c r="B72" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>674</v>
+      </c>
+      <c r="B73" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>676</v>
+      </c>
+      <c r="B74" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>678</v>
+      </c>
+      <c r="B75" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>680</v>
+      </c>
+      <c r="B76" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>682</v>
+      </c>
+      <c r="B77" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>684</v>
+      </c>
+      <c r="B78" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>686</v>
+      </c>
+      <c r="B79" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>688</v>
+      </c>
+      <c r="B80" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>690</v>
+      </c>
+      <c r="B81" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>692</v>
+      </c>
+      <c r="B82" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>694</v>
+      </c>
+      <c r="B83" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>696</v>
+      </c>
+      <c r="B84" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>698</v>
+      </c>
+      <c r="B85" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>700</v>
+      </c>
+      <c r="B86" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>702</v>
+      </c>
+      <c r="B87" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>704</v>
+      </c>
+      <c r="B88" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>706</v>
+      </c>
+      <c r="B89" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>708</v>
+      </c>
+      <c r="B90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>710</v>
+      </c>
+      <c r="B91" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>712</v>
+      </c>
+      <c r="B92" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>714</v>
+      </c>
+      <c r="B93" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>716</v>
+      </c>
+      <c r="B94" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>718</v>
+      </c>
+      <c r="B95" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>720</v>
+      </c>
+      <c r="B96" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>722</v>
+      </c>
+      <c r="B97" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>724</v>
+      </c>
+      <c r="B98" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>726</v>
+      </c>
+      <c r="B99" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>728</v>
+      </c>
+      <c r="B100" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>730</v>
+      </c>
+      <c r="B101" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>732</v>
+      </c>
+      <c r="B102" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>733</v>
+      </c>
+      <c r="B103" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>735</v>
+      </c>
+      <c r="B104" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>737</v>
+      </c>
+      <c r="B105" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>739</v>
+      </c>
+      <c r="B106" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>741</v>
+      </c>
+      <c r="B107" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>743</v>
+      </c>
+      <c r="B108" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>745</v>
+      </c>
+      <c r="B109" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>747</v>
+      </c>
+      <c r="B110" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>749</v>
+      </c>
+      <c r="B111" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>751</v>
+      </c>
+      <c r="B112" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>753</v>
+      </c>
+      <c r="B113" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>755</v>
+      </c>
+      <c r="B114" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>757</v>
+      </c>
+      <c r="B115" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>759</v>
+      </c>
+      <c r="B116" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>761</v>
+      </c>
+      <c r="B117" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>763</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>764</v>
+      </c>
+      <c r="B119" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>766</v>
+      </c>
+      <c r="B120" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>768</v>
+      </c>
+      <c r="B121" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>770</v>
+      </c>
+      <c r="B122" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>772</v>
+      </c>
+      <c r="B123" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>774</v>
+      </c>
+      <c r="B124" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>776</v>
+      </c>
+      <c r="B125" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>778</v>
+      </c>
+      <c r="B126" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>779</v>
+      </c>
+      <c r="B127" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>781</v>
+      </c>
+      <c r="B128" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>783</v>
+      </c>
+      <c r="B129" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>785</v>
+      </c>
+      <c r="B130" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>787</v>
+      </c>
+      <c r="B131" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>789</v>
+      </c>
+      <c r="B132" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>791</v>
+      </c>
+      <c r="B133" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>793</v>
+      </c>
+      <c r="B134" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>795</v>
+      </c>
+      <c r="B135" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>797</v>
+      </c>
+      <c r="B136" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>799</v>
+      </c>
+      <c r="B137" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>801</v>
+      </c>
+      <c r="B138" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>803</v>
+      </c>
+      <c r="B139" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>805</v>
+      </c>
+      <c r="B140" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>807</v>
+      </c>
+      <c r="B141" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>809</v>
+      </c>
+      <c r="B142" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>811</v>
+      </c>
+      <c r="B143" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>813</v>
+      </c>
+      <c r="B144" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>815</v>
+      </c>
+      <c r="B145" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>817</v>
+      </c>
+      <c r="B146" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>819</v>
+      </c>
+      <c r="B147" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>821</v>
+      </c>
+      <c r="B148" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>823</v>
+      </c>
+      <c r="B149" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>825</v>
+      </c>
+      <c r="B150" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>827</v>
+      </c>
+      <c r="B151" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>829</v>
+      </c>
+      <c r="B152" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>831</v>
+      </c>
+      <c r="B153" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>833</v>
+      </c>
+      <c r="B154" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>835</v>
+      </c>
+      <c r="B155" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>837</v>
+      </c>
+      <c r="B156" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>839</v>
+      </c>
+      <c r="B157" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>841</v>
+      </c>
+      <c r="B158" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>843</v>
+      </c>
+      <c r="B159" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>845</v>
+      </c>
+      <c r="B160" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>847</v>
+      </c>
+      <c r="B161" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>849</v>
+      </c>
+      <c r="B162" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>851</v>
+      </c>
+      <c r="B163" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>853</v>
+      </c>
+      <c r="B164" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>855</v>
+      </c>
+      <c r="B165" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>857</v>
+      </c>
+      <c r="B166" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>859</v>
+      </c>
+      <c r="B167" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>861</v>
+      </c>
+      <c r="B168" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>863</v>
+      </c>
+      <c r="B169" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>865</v>
+      </c>
+      <c r="B170" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>867</v>
+      </c>
+      <c r="B171" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>869</v>
+      </c>
+      <c r="B172" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>871</v>
+      </c>
+      <c r="B173" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>873</v>
+      </c>
+      <c r="B174" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>875</v>
+      </c>
+      <c r="B175" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>877</v>
+      </c>
+      <c r="B176" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>879</v>
+      </c>
+      <c r="B177" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>881</v>
+      </c>
+      <c r="B178" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>883</v>
+      </c>
+      <c r="B179" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>885</v>
+      </c>
+      <c r="B180" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>887</v>
+      </c>
+      <c r="B181" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>889</v>
+      </c>
+      <c r="B182" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>891</v>
+      </c>
+      <c r="B183" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>893</v>
+      </c>
+      <c r="B184" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>895</v>
+      </c>
+      <c r="B185" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>897</v>
+      </c>
+      <c r="B186" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>899</v>
+      </c>
+      <c r="B187" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>900</v>
+      </c>
+      <c r="B188" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>902</v>
+      </c>
+      <c r="B189" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>904</v>
+      </c>
+      <c r="B190" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>906</v>
+      </c>
+      <c r="B191" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>908</v>
+      </c>
+      <c r="B192" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>910</v>
+      </c>
+      <c r="B193" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>912</v>
+      </c>
+      <c r="B194" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>914</v>
+      </c>
+      <c r="B195" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>916</v>
+      </c>
+      <c r="B196" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>918</v>
+      </c>
+      <c r="B197" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>920</v>
+      </c>
+      <c r="B198" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>922</v>
+      </c>
+      <c r="B199" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>924</v>
+      </c>
+      <c r="B200" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>926</v>
+      </c>
+      <c r="B201" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>928</v>
+      </c>
+      <c r="B202" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>930</v>
+      </c>
+      <c r="B203" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>932</v>
+      </c>
+      <c r="B204" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>934</v>
+      </c>
+      <c r="B205" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>936</v>
+      </c>
+      <c r="B206" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>938</v>
+      </c>
+      <c r="B207" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>940</v>
+      </c>
+      <c r="B208" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>942</v>
+      </c>
+      <c r="B209" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>944</v>
+      </c>
+      <c r="B210" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>946</v>
+      </c>
+      <c r="B211" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>948</v>
+      </c>
+      <c r="B212" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>950</v>
+      </c>
+      <c r="B213" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>952</v>
+      </c>
+      <c r="B214" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>954</v>
+      </c>
+      <c r="B215" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>956</v>
+      </c>
+      <c r="B216" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>958</v>
+      </c>
+      <c r="B217" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>960</v>
+      </c>
+      <c r="B218" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>962</v>
+      </c>
+      <c r="B219" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>964</v>
+      </c>
+      <c r="B220" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>966</v>
+      </c>
+      <c r="B221" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>968</v>
+      </c>
+      <c r="B222" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>970</v>
+      </c>
+      <c r="B223" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>972</v>
+      </c>
+      <c r="B224" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>974</v>
+      </c>
+      <c r="B225" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>976</v>
+      </c>
+      <c r="B226" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>978</v>
+      </c>
+      <c r="B227" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>980</v>
+      </c>
+      <c r="B228" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>982</v>
+      </c>
+      <c r="B229" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>984</v>
+      </c>
+      <c r="B230" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>986</v>
+      </c>
+      <c r="B231" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>988</v>
+      </c>
+      <c r="B232" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>990</v>
+      </c>
+      <c r="B233" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>992</v>
+      </c>
+      <c r="B234" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>994</v>
+      </c>
+      <c r="B235" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>995</v>
+      </c>
+      <c r="B236" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>997</v>
+      </c>
+      <c r="B237" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>999</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B244" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>544</v>
+      </c>
+      <c r="B246" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1086</v>
       </c>
     </row>
   </sheetData>

--- a/Code/1-Foundation/Lever/Resources/SR.xlsx
+++ b/Code/1-Foundation/Lever/Resources/SR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Lever\Code\1-Foundation\Lever\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Meision\Lever\Code\1-Foundation\Lever\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="1118">
   <si>
     <t>Identifier</t>
   </si>
@@ -1657,10 +1657,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>_Exception_InvalidIndexLength</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>_Exception_LengthOutOfRange</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1825,15 +1821,9 @@
     <t>Parameters lists contains null at index of {0}.</t>
   </si>
   <si>
-    <t>ByteStream_SeekBeforeBegin</t>
-  </si>
-  <si>
     <t>An attempt was made to move the position before the beginning of the stream.</t>
   </si>
   <si>
-    <t>ByteStream_StreamTooLong</t>
-  </si>
-  <si>
     <t>Stream was too long.</t>
   </si>
   <si>
@@ -2719,595 +2709,709 @@
     <t>Invalid Expression.</t>
   </si>
   <si>
+    <t>Host is invalid.</t>
+  </si>
+  <si>
+    <t>NetworkService_Exception_InvalidPort</t>
+  </si>
+  <si>
+    <t>Service port is invalid.</t>
+  </si>
+  <si>
+    <t>NetworkServiceCollection_Exception_ServiceExist</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display_File</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display_Folder</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Display_Hidden</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Execute</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Open</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Parent</t>
+  </si>
+  <si>
+    <t>Up to Parent</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Refresh</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Sort</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Sort_Ascending</t>
+  </si>
+  <si>
+    <t>Ascending</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_Sort_Descending</t>
+  </si>
+  <si>
+    <t>Descending</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_Details</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_LargeIcon</t>
+  </si>
+  <si>
+    <t>Large Icon</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_List</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_ContextMenu_View_SmallIcon</t>
+  </si>
+  <si>
+    <t>Small Icon</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Exception_InvalidFilters</t>
+  </si>
+  <si>
+    <t>Filter string you provided is not valid. The filter string must contain a description of the filter, followed by the vertical bar (|) and the filter pattern. The strings for different filtering options must also be separated by the vertical bar. Example: "Text files (*.txt)|*.txt|All files (*.*)|*.*"</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Filters</t>
+  </si>
+  <si>
+    <t>Filters:</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Paths</t>
+  </si>
+  <si>
+    <t>Paths:</t>
+  </si>
+  <si>
+    <t>OpenFolderFileDialog_Text</t>
+  </si>
+  <si>
+    <t>Open Folder/File</t>
+  </si>
+  <si>
+    <t>OwnerDrawListView_CanNotSetItemHeight</t>
+  </si>
+  <si>
+    <t>Can not set item height will handle created.</t>
+  </si>
+  <si>
+    <t>OwnerDrawTabControl_Close</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>OwnerDrawTabControl_Exception_NotOwnerDrawTabPage</t>
+  </si>
+  <si>
+    <t>Only could add OwnerTabPage or its subclass.</t>
+  </si>
+  <si>
+    <t>PagingControl_TextTemplate_Item</t>
+  </si>
+  <si>
+    <t>Item: {0}-{1}/{2}</t>
+  </si>
+  <si>
+    <t>PagingControl_TextTemplate_Page</t>
+  </si>
+  <si>
+    <t>Page: {0}/{1}</t>
+  </si>
+  <si>
+    <t>Path_Invalid</t>
+  </si>
+  <si>
+    <t>Invalid path.</t>
+  </si>
+  <si>
+    <t>Path_LevelNotEnough</t>
+  </si>
+  <si>
+    <t>Directory do not contains enough parent level.</t>
+  </si>
+  <si>
+    <t>PE_Exception_InvalidDotNetPE</t>
+  </si>
+  <si>
+    <t>Invalid .net PE data</t>
+  </si>
+  <si>
+    <t>PE_Exception_InvalidPE</t>
+  </si>
+  <si>
+    <t>Invalid PE data.</t>
+  </si>
+  <si>
+    <t>PE_Exception_ManifestResourceNotFound</t>
+  </si>
+  <si>
+    <t>Specified manifest resource could not been found.</t>
+  </si>
+  <si>
+    <t>PE_Exception_NotSupportedDotNetPE</t>
+  </si>
+  <si>
+    <t>.Net PE contains not supported data.</t>
+  </si>
+  <si>
+    <t>Picture_Number_Invalid</t>
+  </si>
+  <si>
+    <t>Invalid literal number.</t>
+  </si>
+  <si>
+    <t>PortTextBox_Text_NotSupport</t>
+  </si>
+  <si>
+    <t>Use "Port" property instead of "Text".</t>
+  </si>
+  <si>
+    <t>RegexElement_Invalid</t>
+  </si>
+  <si>
+    <t>Invalid element.</t>
+  </si>
+  <si>
+    <t>RegexElement_LookbehindAssertion_Invalid</t>
+  </si>
+  <si>
+    <t>Could not set RegexTerminalAssertion as lookbehind assertion.</t>
+  </si>
+  <si>
+    <t>RegexQuantifierElement_NotAcceptElements</t>
+  </si>
+  <si>
+    <t>Not accept RegexLiteralElement or RegexQuantifierElement as matching part.</t>
+  </si>
+  <si>
+    <t>ReliableUdpClient_Exception_InvalidRing</t>
+  </si>
+  <si>
+    <t>Invalid ring. ring value must between 1 to 65534</t>
+  </si>
+  <si>
+    <t>ReliableUdpConsole_Exception_ClientManaged</t>
+  </si>
+  <si>
+    <t>Client already managed.</t>
+  </si>
+  <si>
+    <t>ReliableUdpConsole_Exception_ClientNotManaged</t>
+  </si>
+  <si>
+    <t>Client does not manage.</t>
+  </si>
+  <si>
+    <t>Server_Exception_IsNotRunning</t>
+  </si>
+  <si>
+    <t>Server isn't running</t>
+  </si>
+  <si>
+    <t>Server_Exception_IsRunning</t>
+  </si>
+  <si>
+    <t>Server is running.</t>
+  </si>
+  <si>
+    <t>Server_MustRunning</t>
+  </si>
+  <si>
+    <t>Server not running, please call Start() method first.</t>
+  </si>
+  <si>
+    <t>Server_Running</t>
+  </si>
+  <si>
+    <t>Server is running!</t>
+  </si>
+  <si>
+    <t>ShellImageList_Exception_InvalidExtension</t>
+  </si>
+  <si>
+    <t>Invalid extension.</t>
+  </si>
+  <si>
+    <t>SortedCollection_Exception_Insert</t>
+  </si>
+  <si>
+    <t>Could not insert a item in specified index, please use add instead.</t>
+  </si>
+  <si>
+    <t>SortedCollection_Exception_SetItem</t>
+  </si>
+  <si>
+    <t>Could not set item for a SortCollection</t>
+  </si>
+  <si>
+    <t>StronglyTypedRowGenerator_RequiredColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must at lease contains one column. </t>
+  </si>
+  <si>
+    <t>StronglyTypedTableGenerator_RequiredColumn</t>
+  </si>
+  <si>
+    <t>SwitchControl_Exception_MustBeSwitchPage</t>
+  </si>
+  <si>
+    <t>Control must be switch panel.</t>
+  </si>
+  <si>
+    <t>SystemChangeNotifier_ArgumentException_PIDLExist</t>
+  </si>
+  <si>
+    <t>The PIDL is moniting.</t>
+  </si>
+  <si>
+    <t>TableModel_Exception_NameEmpty</t>
+  </si>
+  <si>
+    <t>Table name must not be empty.</t>
+  </si>
+  <si>
+    <t>TableModel_Exception_SchemaEmpty</t>
+  </si>
+  <si>
+    <t>Table schema must not be empty.</t>
+  </si>
+  <si>
+    <t>TableModelCollection_Exception_NameExists</t>
+  </si>
+  <si>
+    <t>Table name already exists.</t>
+  </si>
+  <si>
+    <t>TableSet_Exception_ColumnsEmpty</t>
+  </si>
+  <si>
+    <t>Column could not be empty.</t>
+  </si>
+  <si>
+    <t>TableSet_Exception_EntityIsNull</t>
+  </si>
+  <si>
+    <t>Entity could not be null when specify condition columns.</t>
+  </si>
+  <si>
+    <t>TableSet_Exception_InvalidPropertyName</t>
+  </si>
+  <si>
+    <t>Invalid property name.</t>
+  </si>
+  <si>
+    <t>TcpClient_Exception_Connected</t>
+  </si>
+  <si>
+    <t>TcpClient_Exception_NotFoundPattern</t>
+  </si>
+  <si>
+    <t>Could not find end pattern bytes in buffer.</t>
+  </si>
+  <si>
+    <t>ThreadHook_HookType_NotSupport</t>
+  </si>
+  <si>
+    <t>This HookType does not support in ThreadHook. You must consider using a GlobalHook class</t>
+  </si>
+  <si>
+    <t>TreeListView_Exception_NodeIsNotCollectionContainer</t>
+  </si>
+  <si>
+    <t>Node is not a collection container.</t>
+  </si>
+  <si>
+    <t>TreeListViewNode_Exception_DataIsNotCollectionContainer</t>
+  </si>
+  <si>
+    <t>Data is not a collection container.</t>
+  </si>
+  <si>
+    <t>Updating_Exception_InvalidEndUpdate</t>
+  </si>
+  <si>
+    <t>You must call BeginUpdate() Method before.</t>
+  </si>
+  <si>
+    <t>ValidationInfo_Exception_ExpressionEmpty</t>
+  </si>
+  <si>
+    <t>Expression is empty.</t>
+  </si>
+  <si>
+    <t>ValidationItemCollection_Exception_ItemExist</t>
+  </si>
+  <si>
+    <t>Item exist.</t>
+  </si>
+  <si>
+    <t>ValidationItemCollection_Exception_ItemNotFound</t>
+  </si>
+  <si>
+    <t>Item not found.</t>
+  </si>
+  <si>
+    <t>Validator_ActionList_Tasks</t>
+  </si>
+  <si>
+    <t>Validator Tasks</t>
+  </si>
+  <si>
+    <t>Validator_ActionList_Tasks_ClearValidationInformation</t>
+  </si>
+  <si>
+    <t>Clear Validation Information</t>
+  </si>
+  <si>
+    <t>Validator_Category_BlinkRate</t>
+  </si>
+  <si>
+    <t>Error Provider</t>
+  </si>
+  <si>
+    <t>Validator_Category_BlinkStyle</t>
+  </si>
+  <si>
+    <t>Validator_Category_CustomValidation</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Validator_Category_Icon</t>
+  </si>
+  <si>
+    <t>Validator_Category_RightToLeft</t>
+  </si>
+  <si>
+    <t>Validator_Category_Validation</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Validator_ClearWarning</t>
+  </si>
+  <si>
+    <t>Do you want to clear all validation information from current binding controls?</t>
+  </si>
+  <si>
+    <t>Validator_DefaultErrorMesage</t>
+  </si>
+  <si>
+    <t>An error occurred.</t>
+  </si>
+  <si>
+    <t>Validator_Description_BlinkRate</t>
+  </si>
+  <si>
+    <t>The rate in milliseconds at which the error icon blinks.</t>
+  </si>
+  <si>
+    <t>Validator_Description_BlinkStyle</t>
+  </si>
+  <si>
+    <t>Controls whether the error icon blinks when an error is set.</t>
+  </si>
+  <si>
+    <t>Validator_Description_CustomValidation</t>
+  </si>
+  <si>
+    <t>Occurs when validate, it required set "Custom" validation type flag.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Form</t>
+  </si>
+  <si>
+    <t>Validate all configured validation information controls which lay onto the specified container, when the container is closing.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Icon</t>
+  </si>
+  <si>
+    <t>The icon used to indicate an error.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Mode</t>
+  </si>
+  <si>
+    <t>Validation mode. This mode should be combined with the follow value. FocusChange: Can change to next control when validation fail. Submit:Validate control when user submit.</t>
+  </si>
+  <si>
+    <t>Validator_Description_RightToLeft</t>
+  </si>
+  <si>
+    <t>Indicates whether the component should draw right-to-left for RTL languages.</t>
+  </si>
+  <si>
+    <t>Validator_Description_Validation_ErrorMesage</t>
+  </si>
+  <si>
+    <t>Specify a message to been show when control violate regular expression rule(text isn't match regular express).</t>
+  </si>
+  <si>
+    <t>Validator_Description_Validation_RegularExpression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify regular expression for validation. This property only valid if sets RegularExpression validation type. </t>
+  </si>
+  <si>
+    <t>Validator_Description_Validation_RegularExpressionOptions</t>
+  </si>
+  <si>
+    <t>Specify options for regular expression.</t>
+  </si>
+  <si>
+    <t>Validator_Name</t>
+  </si>
+  <si>
+    <t>Validator</t>
+  </si>
+  <si>
+    <t>Validator_RemoveWarning</t>
+  </si>
+  <si>
+    <t>Do you want to remove validation information associate with this control?</t>
+  </si>
+  <si>
+    <t>ValueRange_Exception_UpperLesserThanLower</t>
+  </si>
+  <si>
+    <t>End value must larger than begin value.</t>
+  </si>
+  <si>
+    <t>Variable16_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 2.</t>
+  </si>
+  <si>
+    <t>Variable32_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 4.</t>
+  </si>
+  <si>
+    <t>Variable64_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 8.</t>
+  </si>
+  <si>
+    <t>Variable8_Exception_SizeUnexpected</t>
+  </si>
+  <si>
+    <t>Size unexpected, requries 1.</t>
+  </si>
+  <si>
+    <t>VirtualItemCollection_ItemHasParent</t>
+  </si>
+  <si>
+    <t>This item belong to another item.</t>
+  </si>
+  <si>
+    <t>VirtualListView_Category_VirtualListSizeChanged</t>
+  </si>
+  <si>
+    <t>Property Changed</t>
+  </si>
+  <si>
+    <t>VirtualListView_Description_VirtualListSizeChanged</t>
+  </si>
+  <si>
+    <t>Occurs whenever the 'VirtualListSize' property for this ListView changed.</t>
+  </si>
+  <si>
+    <t>WebClient_Exception_InvalidChunkedBody</t>
+  </si>
+  <si>
+    <t>Invalid chunked body.</t>
+  </si>
+  <si>
+    <t>Bytes_Exception_InvalidHexText</t>
+  </si>
+  <si>
+    <t>Invalid hex text.</t>
+  </si>
+  <si>
+    <t>Bytes_Exception_InvalidHexChar</t>
+  </si>
+  <si>
+    <t>Fail to parse hex string for '{0}'.</t>
+  </si>
+  <si>
+    <t>Could not perform Resolve() in current status.</t>
+  </si>
+  <si>
+    <t>Value must larger than 0.</t>
+  </si>
+  <si>
+    <t>_Exception_ValueMustPositive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value must not be negative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Exception_ValueMustNotNegative</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Exception_ArrayMustNotEmpty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array must no be empty.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionManager_Concatenate_ContainsNullArray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains null array.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The enum value does not define.</t>
+  </si>
+  <si>
+    <t>_Exception_EnumNotDefine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream does not support writing.</t>
+  </si>
+  <si>
+    <t>Stream_Exception_WriteNotSupport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream is not expandable.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream_Exception_NotExpandable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream length must be non-negative and less than 2^31 - 1 - origin.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream_Exception_StreamLength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream_Exception_SeekBeforeBegin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream_Exception_StreamTooLong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity was less than the current size.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream_Exception_SmallCapacity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream_Exception_ReadBeyondEOF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unable to read beyond the end of the stream.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Exception_StringMustNotEmpty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String must no be empty.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Exception_IndexLengthOutOfArray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_Exception_ValueOutOfRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value '{0}' is out of range.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NetworkServer_Exception_InvalidHost</t>
-  </si>
-  <si>
-    <t>Host is invalid.</t>
-  </si>
-  <si>
-    <t>NetworkService_Exception_InvalidPort</t>
-  </si>
-  <si>
-    <t>Service port is invalid.</t>
-  </si>
-  <si>
-    <t>NetworkServiceCollection_Exception_ServiceExist</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Display</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Display_File</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Display_Folder</t>
-  </si>
-  <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Display_Hidden</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Execute</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Open</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Parent</t>
-  </si>
-  <si>
-    <t>Up to Parent</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Refresh</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Sort</t>
-  </si>
-  <si>
-    <t>Sort</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Sort_Ascending</t>
-  </si>
-  <si>
-    <t>Ascending</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_Sort_Descending</t>
-  </si>
-  <si>
-    <t>Descending</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_View</t>
-  </si>
-  <si>
-    <t>View</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_View_Details</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_View_LargeIcon</t>
-  </si>
-  <si>
-    <t>Large Icon</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_View_List</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_ContextMenu_View_SmallIcon</t>
-  </si>
-  <si>
-    <t>Small Icon</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_Exception_InvalidFilters</t>
-  </si>
-  <si>
-    <t>Filter string you provided is not valid. The filter string must contain a description of the filter, followed by the vertical bar (|) and the filter pattern. The strings for different filtering options must also be separated by the vertical bar. Example: "Text files (*.txt)|*.txt|All files (*.*)|*.*"</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_Filters</t>
-  </si>
-  <si>
-    <t>Filters:</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_Paths</t>
-  </si>
-  <si>
-    <t>Paths:</t>
-  </si>
-  <si>
-    <t>OpenFolderFileDialog_Text</t>
-  </si>
-  <si>
-    <t>Open Folder/File</t>
-  </si>
-  <si>
-    <t>OwnerDrawListView_CanNotSetItemHeight</t>
-  </si>
-  <si>
-    <t>Can not set item height will handle created.</t>
-  </si>
-  <si>
-    <t>OwnerDrawTabControl_Close</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>OwnerDrawTabControl_Exception_NotOwnerDrawTabPage</t>
-  </si>
-  <si>
-    <t>Only could add OwnerTabPage or its subclass.</t>
-  </si>
-  <si>
-    <t>PagingControl_TextTemplate_Item</t>
-  </si>
-  <si>
-    <t>Item: {0}-{1}/{2}</t>
-  </si>
-  <si>
-    <t>PagingControl_TextTemplate_Page</t>
-  </si>
-  <si>
-    <t>Page: {0}/{1}</t>
-  </si>
-  <si>
-    <t>Path_Invalid</t>
-  </si>
-  <si>
-    <t>Invalid path.</t>
-  </si>
-  <si>
-    <t>Path_LevelNotEnough</t>
-  </si>
-  <si>
-    <t>Directory do not contains enough parent level.</t>
-  </si>
-  <si>
-    <t>PE_Exception_InvalidDotNetPE</t>
-  </si>
-  <si>
-    <t>Invalid .net PE data</t>
-  </si>
-  <si>
-    <t>PE_Exception_InvalidPE</t>
-  </si>
-  <si>
-    <t>Invalid PE data.</t>
-  </si>
-  <si>
-    <t>PE_Exception_ManifestResourceNotFound</t>
-  </si>
-  <si>
-    <t>Specified manifest resource could not been found.</t>
-  </si>
-  <si>
-    <t>PE_Exception_NotSupportedDotNetPE</t>
-  </si>
-  <si>
-    <t>.Net PE contains not supported data.</t>
-  </si>
-  <si>
-    <t>Picture_Number_Invalid</t>
-  </si>
-  <si>
-    <t>Invalid literal number.</t>
-  </si>
-  <si>
-    <t>PortTextBox_Text_NotSupport</t>
-  </si>
-  <si>
-    <t>Use "Port" property instead of "Text".</t>
-  </si>
-  <si>
-    <t>RegexElement_Invalid</t>
-  </si>
-  <si>
-    <t>Invalid element.</t>
-  </si>
-  <si>
-    <t>RegexElement_LookbehindAssertion_Invalid</t>
-  </si>
-  <si>
-    <t>Could not set RegexTerminalAssertion as lookbehind assertion.</t>
-  </si>
-  <si>
-    <t>RegexQuantifierElement_NotAcceptElements</t>
-  </si>
-  <si>
-    <t>Not accept RegexLiteralElement or RegexQuantifierElement as matching part.</t>
-  </si>
-  <si>
-    <t>ReliableUdpClient_Exception_InvalidRing</t>
-  </si>
-  <si>
-    <t>Invalid ring. ring value must between 1 to 65534</t>
-  </si>
-  <si>
-    <t>ReliableUdpConsole_Exception_ClientManaged</t>
-  </si>
-  <si>
-    <t>Client already managed.</t>
-  </si>
-  <si>
-    <t>ReliableUdpConsole_Exception_ClientNotManaged</t>
-  </si>
-  <si>
-    <t>Client does not manage.</t>
-  </si>
-  <si>
-    <t>Server_Exception_IsNotRunning</t>
-  </si>
-  <si>
-    <t>Server isn't running</t>
-  </si>
-  <si>
-    <t>Server_Exception_IsRunning</t>
-  </si>
-  <si>
-    <t>Server is running.</t>
-  </si>
-  <si>
-    <t>Server_MustRunning</t>
-  </si>
-  <si>
-    <t>Server not running, please call Start() method first.</t>
-  </si>
-  <si>
-    <t>Server_Running</t>
-  </si>
-  <si>
-    <t>Server is running!</t>
-  </si>
-  <si>
-    <t>ShellImageList_Exception_InvalidExtension</t>
-  </si>
-  <si>
-    <t>Invalid extension.</t>
-  </si>
-  <si>
-    <t>SortedCollection_Exception_Insert</t>
-  </si>
-  <si>
-    <t>Could not insert a item in specified index, please use add instead.</t>
-  </si>
-  <si>
-    <t>SortedCollection_Exception_SetItem</t>
-  </si>
-  <si>
-    <t>Could not set item for a SortCollection</t>
-  </si>
-  <si>
-    <t>StronglyTypedRowGenerator_RequiredColumn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must at lease contains one column. </t>
-  </si>
-  <si>
-    <t>StronglyTypedTableGenerator_RequiredColumn</t>
-  </si>
-  <si>
-    <t>SwitchControl_Exception_MustBeSwitchPage</t>
-  </si>
-  <si>
-    <t>Control must be switch panel.</t>
-  </si>
-  <si>
-    <t>SystemChangeNotifier_ArgumentException_PIDLExist</t>
-  </si>
-  <si>
-    <t>The PIDL is moniting.</t>
-  </si>
-  <si>
-    <t>TableModel_Exception_NameEmpty</t>
-  </si>
-  <si>
-    <t>Table name must not be empty.</t>
-  </si>
-  <si>
-    <t>TableModel_Exception_SchemaEmpty</t>
-  </si>
-  <si>
-    <t>Table schema must not be empty.</t>
-  </si>
-  <si>
-    <t>TableModelCollection_Exception_NameExists</t>
-  </si>
-  <si>
-    <t>Table name already exists.</t>
-  </si>
-  <si>
-    <t>TableSet_Exception_ColumnsEmpty</t>
-  </si>
-  <si>
-    <t>Column could not be empty.</t>
-  </si>
-  <si>
-    <t>TableSet_Exception_EntityIsNull</t>
-  </si>
-  <si>
-    <t>Entity could not be null when specify condition columns.</t>
-  </si>
-  <si>
-    <t>TableSet_Exception_InvalidPropertyName</t>
-  </si>
-  <si>
-    <t>Invalid property name.</t>
-  </si>
-  <si>
-    <t>TcpClient_Exception_Connected</t>
-  </si>
-  <si>
-    <t>TcpClient_Exception_NotFoundPattern</t>
-  </si>
-  <si>
-    <t>Could not find end pattern bytes in buffer.</t>
-  </si>
-  <si>
-    <t>ThreadHook_HookType_NotSupport</t>
-  </si>
-  <si>
-    <t>This HookType does not support in ThreadHook. You must consider using a GlobalHook class</t>
-  </si>
-  <si>
-    <t>TreeListView_Exception_NodeIsNotCollectionContainer</t>
-  </si>
-  <si>
-    <t>Node is not a collection container.</t>
-  </si>
-  <si>
-    <t>TreeListViewNode_Exception_DataIsNotCollectionContainer</t>
-  </si>
-  <si>
-    <t>Data is not a collection container.</t>
-  </si>
-  <si>
-    <t>Updating_Exception_InvalidEndUpdate</t>
-  </si>
-  <si>
-    <t>You must call BeginUpdate() Method before.</t>
-  </si>
-  <si>
-    <t>ValidationInfo_Exception_ExpressionEmpty</t>
-  </si>
-  <si>
-    <t>Expression is empty.</t>
-  </si>
-  <si>
-    <t>ValidationItemCollection_Exception_ItemExist</t>
-  </si>
-  <si>
-    <t>Item exist.</t>
-  </si>
-  <si>
-    <t>ValidationItemCollection_Exception_ItemNotFound</t>
-  </si>
-  <si>
-    <t>Item not found.</t>
-  </si>
-  <si>
-    <t>Validator_ActionList_Tasks</t>
-  </si>
-  <si>
-    <t>Validator Tasks</t>
-  </si>
-  <si>
-    <t>Validator_ActionList_Tasks_ClearValidationInformation</t>
-  </si>
-  <si>
-    <t>Clear Validation Information</t>
-  </si>
-  <si>
-    <t>Validator_Category_BlinkRate</t>
-  </si>
-  <si>
-    <t>Error Provider</t>
-  </si>
-  <si>
-    <t>Validator_Category_BlinkStyle</t>
-  </si>
-  <si>
-    <t>Validator_Category_CustomValidation</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Validator_Category_Icon</t>
-  </si>
-  <si>
-    <t>Validator_Category_RightToLeft</t>
-  </si>
-  <si>
-    <t>Validator_Category_Validation</t>
-  </si>
-  <si>
-    <t>Validation</t>
-  </si>
-  <si>
-    <t>Validator_ClearWarning</t>
-  </si>
-  <si>
-    <t>Do you want to clear all validation information from current binding controls?</t>
-  </si>
-  <si>
-    <t>Validator_DefaultErrorMesage</t>
-  </si>
-  <si>
-    <t>An error occurred.</t>
-  </si>
-  <si>
-    <t>Validator_Description_BlinkRate</t>
-  </si>
-  <si>
-    <t>The rate in milliseconds at which the error icon blinks.</t>
-  </si>
-  <si>
-    <t>Validator_Description_BlinkStyle</t>
-  </si>
-  <si>
-    <t>Controls whether the error icon blinks when an error is set.</t>
-  </si>
-  <si>
-    <t>Validator_Description_CustomValidation</t>
-  </si>
-  <si>
-    <t>Occurs when validate, it required set "Custom" validation type flag.</t>
-  </si>
-  <si>
-    <t>Validator_Description_Form</t>
-  </si>
-  <si>
-    <t>Validate all configured validation information controls which lay onto the specified container, when the container is closing.</t>
-  </si>
-  <si>
-    <t>Validator_Description_Icon</t>
-  </si>
-  <si>
-    <t>The icon used to indicate an error.</t>
-  </si>
-  <si>
-    <t>Validator_Description_Mode</t>
-  </si>
-  <si>
-    <t>Validation mode. This mode should be combined with the follow value. FocusChange: Can change to next control when validation fail. Submit:Validate control when user submit.</t>
-  </si>
-  <si>
-    <t>Validator_Description_RightToLeft</t>
-  </si>
-  <si>
-    <t>Indicates whether the component should draw right-to-left for RTL languages.</t>
-  </si>
-  <si>
-    <t>Validator_Description_Validation_ErrorMesage</t>
-  </si>
-  <si>
-    <t>Specify a message to been show when control violate regular expression rule(text isn't match regular express).</t>
-  </si>
-  <si>
-    <t>Validator_Description_Validation_RegularExpression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specify regular expression for validation. This property only valid if sets RegularExpression validation type. </t>
-  </si>
-  <si>
-    <t>Validator_Description_Validation_RegularExpressionOptions</t>
-  </si>
-  <si>
-    <t>Specify options for regular expression.</t>
-  </si>
-  <si>
-    <t>Validator_Name</t>
-  </si>
-  <si>
-    <t>Validator</t>
-  </si>
-  <si>
-    <t>Validator_RemoveWarning</t>
-  </si>
-  <si>
-    <t>Do you want to remove validation information associate with this control?</t>
-  </si>
-  <si>
-    <t>ValueRange_Exception_UpperLesserThanLower</t>
-  </si>
-  <si>
-    <t>End value must larger than begin value.</t>
-  </si>
-  <si>
-    <t>Variable16_Exception_SizeUnexpected</t>
-  </si>
-  <si>
-    <t>Size unexpected, requries 2.</t>
-  </si>
-  <si>
-    <t>Variable32_Exception_SizeUnexpected</t>
-  </si>
-  <si>
-    <t>Size unexpected, requries 4.</t>
-  </si>
-  <si>
-    <t>Variable64_Exception_SizeUnexpected</t>
-  </si>
-  <si>
-    <t>Size unexpected, requries 8.</t>
-  </si>
-  <si>
-    <t>Variable8_Exception_SizeUnexpected</t>
-  </si>
-  <si>
-    <t>Size unexpected, requries 1.</t>
-  </si>
-  <si>
-    <t>VirtualItemCollection_ItemHasParent</t>
-  </si>
-  <si>
-    <t>This item belong to another item.</t>
-  </si>
-  <si>
-    <t>VirtualListView_Category_VirtualListSizeChanged</t>
-  </si>
-  <si>
-    <t>Property Changed</t>
-  </si>
-  <si>
-    <t>VirtualListView_Description_VirtualListSizeChanged</t>
-  </si>
-  <si>
-    <t>Occurs whenever the 'VirtualListSize' property for this ListView changed.</t>
-  </si>
-  <si>
-    <t>WebClient_Exception_InvalidChunkedBody</t>
-  </si>
-  <si>
-    <t>Invalid chunked body.</t>
-  </si>
-  <si>
-    <t>Bytes_Exception_InvalidHexText</t>
-  </si>
-  <si>
-    <t>Invalid hex text.</t>
-  </si>
-  <si>
-    <t>Bytes_Exception_InvalidHexChar</t>
-  </si>
-  <si>
-    <t>Fail to parse hex string for '{0}'.</t>
-  </si>
-  <si>
-    <t>Could not perform Resolve() in current status.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetworkEndPoint_Exception_InvalidPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port is invalid.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4295,38 +4399,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E284"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C184" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="36.25" customWidth="1"/>
+    <col min="1" max="2" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>538</v>
       </c>
@@ -4334,2260 +4429,2364 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>546</v>
       </c>
-      <c r="B5" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B12" t="s">
         <v>547</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B13" t="s">
         <v>549</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B14" t="s">
         <v>551</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B15" t="s">
         <v>553</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B16" t="s">
         <v>555</v>
-      </c>
-      <c r="B10" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B11" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>559</v>
-      </c>
-      <c r="B12" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>561</v>
-      </c>
-      <c r="B13" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>563</v>
-      </c>
-      <c r="B14" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>565</v>
-      </c>
-      <c r="B15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>567</v>
-      </c>
-      <c r="B16" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B17" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B18" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B20" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B22" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B24" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B25" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B26" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="B28" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B29" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B30" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1087</v>
+        <v>584</v>
       </c>
       <c r="B31" t="s">
-        <v>1088</v>
+        <v>585</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1089</v>
+        <v>586</v>
       </c>
       <c r="B32" t="s">
-        <v>1090</v>
+        <v>587</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B33" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="B34" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="B35" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="B36" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>605</v>
+        <v>1083</v>
       </c>
       <c r="B37" t="s">
-        <v>606</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>607</v>
+        <v>1085</v>
       </c>
       <c r="B38" t="s">
-        <v>608</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>609</v>
+        <v>1103</v>
       </c>
       <c r="B39" t="s">
-        <v>610</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>611</v>
+        <v>1104</v>
       </c>
       <c r="B40" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>613</v>
+        <v>1107</v>
       </c>
       <c r="B41" t="s">
-        <v>614</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>615</v>
+        <v>1105</v>
       </c>
       <c r="B42" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>617</v>
+        <v>1099</v>
       </c>
       <c r="B43" t="s">
-        <v>618</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>619</v>
+        <v>1101</v>
       </c>
       <c r="B44" t="s">
-        <v>620</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>621</v>
+        <v>1108</v>
       </c>
       <c r="B45" t="s">
-        <v>622</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="B46" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="B47" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>627</v>
+        <v>602</v>
       </c>
       <c r="B48" t="s">
-        <v>628</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="B49" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="B50" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>633</v>
+        <v>608</v>
       </c>
       <c r="B51" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B52" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="B53" t="s">
-        <v>632</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="B54" t="s">
-        <v>637</v>
+        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>638</v>
+        <v>616</v>
       </c>
       <c r="B55" t="s">
-        <v>639</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="B56" t="s">
-        <v>641</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>642</v>
+        <v>620</v>
       </c>
       <c r="B57" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>644</v>
+        <v>622</v>
       </c>
       <c r="B58" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="B59" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="B60" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>650</v>
+        <v>1094</v>
       </c>
       <c r="B61" t="s">
-        <v>651</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B62" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="B63" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>656</v>
+        <v>631</v>
       </c>
       <c r="B64" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="B65" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="B66" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="B67" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="B68" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="B69" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="B70" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="B71" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="B72" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="B73" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="B74" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="B75" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="B76" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="B77" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="B78" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="B79" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="B80" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="B81" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="B82" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="B83" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="B84" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="B85" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="B86" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="B87" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="B88" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="B89" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="B90" t="s">
-        <v>709</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>710</v>
+        <v>683</v>
       </c>
       <c r="B91" t="s">
-        <v>711</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
       <c r="B92" t="s">
-        <v>713</v>
+        <v>686</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>714</v>
+        <v>687</v>
       </c>
       <c r="B93" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>716</v>
+        <v>689</v>
       </c>
       <c r="B94" t="s">
-        <v>717</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>718</v>
+        <v>691</v>
       </c>
       <c r="B95" t="s">
-        <v>719</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>720</v>
+        <v>693</v>
       </c>
       <c r="B96" t="s">
-        <v>721</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>722</v>
+        <v>695</v>
       </c>
       <c r="B97" t="s">
-        <v>723</v>
+        <v>696</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>724</v>
+        <v>697</v>
       </c>
       <c r="B98" t="s">
-        <v>725</v>
+        <v>698</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="B99" t="s">
-        <v>727</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>728</v>
+        <v>701</v>
       </c>
       <c r="B100" t="s">
-        <v>729</v>
+        <v>702</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>730</v>
+        <v>703</v>
       </c>
       <c r="B101" t="s">
-        <v>731</v>
+        <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>732</v>
+        <v>705</v>
       </c>
       <c r="B102" t="s">
-        <v>681</v>
+        <v>706</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="B103" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="B104" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="B105" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
       <c r="B106" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="B107" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
       <c r="B108" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="B109" t="s">
-        <v>746</v>
+        <v>720</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="B110" t="s">
-        <v>748</v>
+        <v>722</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>749</v>
+        <v>723</v>
       </c>
       <c r="B111" t="s">
-        <v>750</v>
+        <v>724</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>751</v>
+        <v>725</v>
       </c>
       <c r="B112" t="s">
-        <v>752</v>
+        <v>726</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>753</v>
+        <v>727</v>
       </c>
       <c r="B113" t="s">
-        <v>754</v>
+        <v>728</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>755</v>
+        <v>729</v>
       </c>
       <c r="B114" t="s">
-        <v>756</v>
+        <v>678</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>757</v>
+        <v>730</v>
       </c>
       <c r="B115" t="s">
-        <v>758</v>
+        <v>731</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="B116" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
       <c r="B117" t="s">
-        <v>762</v>
+        <v>735</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="B118" t="s">
-        <v>1091</v>
+        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>764</v>
+        <v>738</v>
       </c>
       <c r="B119" t="s">
-        <v>765</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>766</v>
+        <v>740</v>
       </c>
       <c r="B120" t="s">
-        <v>767</v>
+        <v>741</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>768</v>
+        <v>742</v>
       </c>
       <c r="B121" t="s">
-        <v>769</v>
+        <v>743</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="B122" t="s">
-        <v>771</v>
+        <v>745</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>772</v>
+        <v>746</v>
       </c>
       <c r="B123" t="s">
-        <v>773</v>
+        <v>747</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>774</v>
+        <v>748</v>
       </c>
       <c r="B124" t="s">
-        <v>775</v>
+        <v>749</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>776</v>
+        <v>750</v>
       </c>
       <c r="B125" t="s">
-        <v>777</v>
+        <v>751</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>778</v>
+        <v>752</v>
       </c>
       <c r="B126" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>779</v>
+        <v>754</v>
       </c>
       <c r="B127" t="s">
-        <v>780</v>
+        <v>755</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>781</v>
+        <v>756</v>
       </c>
       <c r="B128" t="s">
-        <v>782</v>
+        <v>757</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>783</v>
+        <v>758</v>
       </c>
       <c r="B129" t="s">
-        <v>784</v>
+        <v>759</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>785</v>
+        <v>760</v>
       </c>
       <c r="B130" t="s">
-        <v>786</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>787</v>
+        <v>761</v>
       </c>
       <c r="B131" t="s">
-        <v>788</v>
+        <v>762</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>789</v>
+        <v>763</v>
       </c>
       <c r="B132" t="s">
-        <v>790</v>
+        <v>764</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>791</v>
+        <v>765</v>
       </c>
       <c r="B133" t="s">
-        <v>792</v>
+        <v>766</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>793</v>
+        <v>767</v>
       </c>
       <c r="B134" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>795</v>
+        <v>769</v>
       </c>
       <c r="B135" t="s">
-        <v>796</v>
+        <v>770</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>797</v>
+        <v>771</v>
       </c>
       <c r="B136" t="s">
-        <v>798</v>
+        <v>772</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
       <c r="B137" t="s">
-        <v>800</v>
+        <v>774</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>801</v>
+        <v>775</v>
       </c>
       <c r="B138" t="s">
-        <v>802</v>
+        <v>751</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="B139" t="s">
-        <v>804</v>
+        <v>777</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="B140" t="s">
-        <v>806</v>
+        <v>779</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>807</v>
+        <v>780</v>
       </c>
       <c r="B141" t="s">
-        <v>808</v>
+        <v>781</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>809</v>
+        <v>782</v>
       </c>
       <c r="B142" t="s">
-        <v>810</v>
+        <v>783</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>811</v>
+        <v>784</v>
       </c>
       <c r="B143" t="s">
-        <v>812</v>
+        <v>785</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>813</v>
+        <v>786</v>
       </c>
       <c r="B144" t="s">
-        <v>814</v>
+        <v>787</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>815</v>
+        <v>788</v>
       </c>
       <c r="B145" t="s">
-        <v>816</v>
+        <v>789</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>817</v>
+        <v>790</v>
       </c>
       <c r="B146" t="s">
-        <v>818</v>
+        <v>791</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="B147" t="s">
-        <v>820</v>
+        <v>793</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>821</v>
+        <v>794</v>
       </c>
       <c r="B148" t="s">
-        <v>822</v>
+        <v>795</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="B149" t="s">
-        <v>824</v>
+        <v>797</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>825</v>
+        <v>798</v>
       </c>
       <c r="B150" t="s">
-        <v>826</v>
+        <v>799</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>827</v>
+        <v>800</v>
       </c>
       <c r="B151" t="s">
-        <v>828</v>
+        <v>801</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>829</v>
+        <v>802</v>
       </c>
       <c r="B152" t="s">
-        <v>830</v>
+        <v>803</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>831</v>
+        <v>804</v>
       </c>
       <c r="B153" t="s">
-        <v>832</v>
+        <v>805</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="B154" t="s">
-        <v>834</v>
+        <v>807</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>835</v>
+        <v>808</v>
       </c>
       <c r="B155" t="s">
-        <v>836</v>
+        <v>809</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>837</v>
+        <v>810</v>
       </c>
       <c r="B156" t="s">
-        <v>838</v>
+        <v>811</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>839</v>
+        <v>812</v>
       </c>
       <c r="B157" t="s">
-        <v>840</v>
+        <v>813</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>841</v>
+        <v>814</v>
       </c>
       <c r="B158" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>843</v>
+        <v>816</v>
       </c>
       <c r="B159" t="s">
-        <v>844</v>
+        <v>817</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>845</v>
+        <v>818</v>
       </c>
       <c r="B160" t="s">
-        <v>846</v>
+        <v>819</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="B161" t="s">
-        <v>848</v>
+        <v>821</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>849</v>
+        <v>822</v>
       </c>
       <c r="B162" t="s">
-        <v>850</v>
+        <v>823</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>851</v>
+        <v>824</v>
       </c>
       <c r="B163" t="s">
-        <v>852</v>
+        <v>825</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>853</v>
+        <v>826</v>
       </c>
       <c r="B164" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>855</v>
+        <v>828</v>
       </c>
       <c r="B165" t="s">
-        <v>856</v>
+        <v>829</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>857</v>
+        <v>830</v>
       </c>
       <c r="B166" t="s">
-        <v>858</v>
+        <v>831</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>859</v>
+        <v>832</v>
       </c>
       <c r="B167" t="s">
-        <v>860</v>
+        <v>833</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>861</v>
+        <v>834</v>
       </c>
       <c r="B168" t="s">
-        <v>862</v>
+        <v>835</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>863</v>
+        <v>836</v>
       </c>
       <c r="B169" t="s">
-        <v>864</v>
+        <v>837</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>865</v>
+        <v>838</v>
       </c>
       <c r="B170" t="s">
-        <v>866</v>
+        <v>839</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>867</v>
+        <v>840</v>
       </c>
       <c r="B171" t="s">
-        <v>868</v>
+        <v>841</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>869</v>
+        <v>842</v>
       </c>
       <c r="B172" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>871</v>
+        <v>844</v>
       </c>
       <c r="B173" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>873</v>
+        <v>846</v>
       </c>
       <c r="B174" t="s">
-        <v>874</v>
+        <v>847</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>875</v>
+        <v>848</v>
       </c>
       <c r="B175" t="s">
-        <v>876</v>
+        <v>849</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="B176" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>879</v>
+        <v>852</v>
       </c>
       <c r="B177" t="s">
-        <v>880</v>
+        <v>853</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>881</v>
+        <v>854</v>
       </c>
       <c r="B178" t="s">
-        <v>882</v>
+        <v>855</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>883</v>
+        <v>856</v>
       </c>
       <c r="B179" t="s">
-        <v>884</v>
+        <v>857</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>885</v>
+        <v>858</v>
       </c>
       <c r="B180" t="s">
-        <v>886</v>
+        <v>859</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>887</v>
+        <v>860</v>
       </c>
       <c r="B181" t="s">
-        <v>888</v>
+        <v>861</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="B182" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="B183" t="s">
-        <v>892</v>
+        <v>865</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>893</v>
+        <v>866</v>
       </c>
       <c r="B184" t="s">
-        <v>894</v>
+        <v>867</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
       <c r="B185" t="s">
-        <v>896</v>
+        <v>869</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="B186" t="s">
-        <v>898</v>
+        <v>871</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>899</v>
+        <v>872</v>
       </c>
       <c r="B187" t="s">
-        <v>767</v>
+        <v>873</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>900</v>
+        <v>874</v>
       </c>
       <c r="B188" t="s">
-        <v>901</v>
+        <v>875</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>902</v>
+        <v>876</v>
       </c>
       <c r="B189" t="s">
-        <v>903</v>
+        <v>877</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>904</v>
+        <v>878</v>
       </c>
       <c r="B190" t="s">
-        <v>905</v>
+        <v>879</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>906</v>
+        <v>880</v>
       </c>
       <c r="B191" t="s">
-        <v>907</v>
+        <v>881</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>908</v>
+        <v>882</v>
       </c>
       <c r="B192" t="s">
-        <v>909</v>
+        <v>883</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>910</v>
+        <v>884</v>
       </c>
       <c r="B193" t="s">
-        <v>911</v>
+        <v>885</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>912</v>
+        <v>886</v>
       </c>
       <c r="B194" t="s">
-        <v>913</v>
+        <v>887</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>914</v>
+        <v>888</v>
       </c>
       <c r="B195" t="s">
-        <v>915</v>
+        <v>889</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>916</v>
+        <v>890</v>
       </c>
       <c r="B196" t="s">
-        <v>917</v>
+        <v>891</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>918</v>
+        <v>1115</v>
       </c>
       <c r="B197" t="s">
-        <v>919</v>
+        <v>892</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>920</v>
+        <v>893</v>
       </c>
       <c r="B198" t="s">
-        <v>921</v>
+        <v>894</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>922</v>
+        <v>895</v>
       </c>
       <c r="B199" t="s">
-        <v>923</v>
+        <v>764</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>924</v>
+        <v>1116</v>
       </c>
       <c r="B200" t="s">
-        <v>925</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>926</v>
+        <v>896</v>
       </c>
       <c r="B201" t="s">
-        <v>927</v>
+        <v>897</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>928</v>
+        <v>898</v>
       </c>
       <c r="B202" t="s">
-        <v>929</v>
+        <v>899</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="B203" t="s">
-        <v>931</v>
+        <v>901</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>932</v>
+        <v>902</v>
       </c>
       <c r="B204" t="s">
-        <v>933</v>
+        <v>903</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>934</v>
+        <v>904</v>
       </c>
       <c r="B205" t="s">
-        <v>935</v>
+        <v>905</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="B206" t="s">
-        <v>937</v>
+        <v>907</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>938</v>
+        <v>908</v>
       </c>
       <c r="B207" t="s">
-        <v>939</v>
+        <v>909</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>940</v>
+        <v>910</v>
       </c>
       <c r="B208" t="s">
-        <v>941</v>
+        <v>911</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>942</v>
+        <v>912</v>
       </c>
       <c r="B209" t="s">
-        <v>943</v>
+        <v>913</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>944</v>
+        <v>914</v>
       </c>
       <c r="B210" t="s">
-        <v>945</v>
+        <v>915</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>946</v>
+        <v>916</v>
       </c>
       <c r="B211" t="s">
-        <v>947</v>
+        <v>917</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>948</v>
+        <v>918</v>
       </c>
       <c r="B212" t="s">
-        <v>949</v>
+        <v>919</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>950</v>
+        <v>920</v>
       </c>
       <c r="B213" t="s">
-        <v>951</v>
+        <v>921</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>952</v>
+        <v>922</v>
       </c>
       <c r="B214" t="s">
-        <v>953</v>
+        <v>923</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>954</v>
+        <v>924</v>
       </c>
       <c r="B215" t="s">
-        <v>955</v>
+        <v>925</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>956</v>
+        <v>926</v>
       </c>
       <c r="B216" t="s">
-        <v>957</v>
+        <v>927</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>958</v>
+        <v>928</v>
       </c>
       <c r="B217" t="s">
-        <v>959</v>
+        <v>929</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>960</v>
+        <v>930</v>
       </c>
       <c r="B218" t="s">
-        <v>961</v>
+        <v>931</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="B219" t="s">
-        <v>963</v>
+        <v>933</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>964</v>
+        <v>934</v>
       </c>
       <c r="B220" t="s">
-        <v>965</v>
+        <v>935</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>966</v>
+        <v>936</v>
       </c>
       <c r="B221" t="s">
-        <v>967</v>
+        <v>937</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>968</v>
+        <v>938</v>
       </c>
       <c r="B222" t="s">
-        <v>969</v>
+        <v>939</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>970</v>
+        <v>940</v>
       </c>
       <c r="B223" t="s">
-        <v>971</v>
+        <v>941</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>972</v>
+        <v>942</v>
       </c>
       <c r="B224" t="s">
-        <v>973</v>
+        <v>943</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>974</v>
+        <v>944</v>
       </c>
       <c r="B225" t="s">
-        <v>975</v>
+        <v>945</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>976</v>
+        <v>946</v>
       </c>
       <c r="B226" t="s">
-        <v>977</v>
+        <v>947</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>978</v>
+        <v>948</v>
       </c>
       <c r="B227" t="s">
-        <v>979</v>
+        <v>949</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>980</v>
+        <v>950</v>
       </c>
       <c r="B228" t="s">
-        <v>981</v>
+        <v>951</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>982</v>
+        <v>952</v>
       </c>
       <c r="B229" t="s">
-        <v>983</v>
+        <v>953</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>984</v>
+        <v>954</v>
       </c>
       <c r="B230" t="s">
-        <v>985</v>
+        <v>955</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>986</v>
+        <v>956</v>
       </c>
       <c r="B231" t="s">
-        <v>987</v>
+        <v>957</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>988</v>
+        <v>958</v>
       </c>
       <c r="B232" t="s">
-        <v>989</v>
+        <v>959</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>990</v>
+        <v>960</v>
       </c>
       <c r="B233" t="s">
-        <v>991</v>
+        <v>961</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>992</v>
+        <v>962</v>
       </c>
       <c r="B234" t="s">
-        <v>993</v>
+        <v>963</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>994</v>
+        <v>964</v>
       </c>
       <c r="B235" t="s">
-        <v>993</v>
+        <v>965</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>995</v>
+        <v>966</v>
       </c>
       <c r="B236" t="s">
-        <v>996</v>
+        <v>967</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>997</v>
+        <v>968</v>
       </c>
       <c r="B237" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
       <c r="B238" t="s">
-        <v>1000</v>
+        <v>971</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="B239" t="s">
-        <v>1002</v>
+        <v>973</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1003</v>
+        <v>974</v>
       </c>
       <c r="B240" t="s">
-        <v>1004</v>
+        <v>975</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1005</v>
+        <v>976</v>
       </c>
       <c r="B241" t="s">
-        <v>1006</v>
+        <v>977</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1007</v>
+        <v>978</v>
       </c>
       <c r="B242" t="s">
-        <v>1008</v>
+        <v>979</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1009</v>
+        <v>980</v>
       </c>
       <c r="B243" t="s">
-        <v>1010</v>
+        <v>981</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1011</v>
+        <v>982</v>
       </c>
       <c r="B244" t="s">
-        <v>699</v>
+        <v>983</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1012</v>
+        <v>984</v>
       </c>
       <c r="B245" t="s">
-        <v>1013</v>
+        <v>985</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>544</v>
+        <v>986</v>
       </c>
       <c r="B246" t="s">
-        <v>545</v>
+        <v>987</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1014</v>
+        <v>988</v>
       </c>
       <c r="B247" t="s">
-        <v>1015</v>
+        <v>989</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1016</v>
+        <v>990</v>
       </c>
       <c r="B248" t="s">
-        <v>1017</v>
+        <v>989</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1018</v>
+        <v>991</v>
       </c>
       <c r="B249" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1020</v>
+        <v>993</v>
       </c>
       <c r="B250" t="s">
-        <v>1021</v>
+        <v>994</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>1022</v>
+        <v>995</v>
       </c>
       <c r="B251" t="s">
-        <v>1023</v>
+        <v>996</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
       <c r="B252" t="s">
-        <v>1025</v>
+        <v>998</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>1026</v>
+        <v>999</v>
       </c>
       <c r="B253" t="s">
-        <v>1027</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>1028</v>
+        <v>1001</v>
       </c>
       <c r="B254" t="s">
-        <v>1029</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>1030</v>
+        <v>1003</v>
       </c>
       <c r="B255" t="s">
-        <v>1031</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1032</v>
+        <v>1005</v>
       </c>
       <c r="B256" t="s">
-        <v>1033</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1034</v>
+        <v>1007</v>
       </c>
       <c r="B257" t="s">
-        <v>1033</v>
+        <v>696</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
       <c r="B258" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1037</v>
+        <v>543</v>
       </c>
       <c r="B259" t="s">
-        <v>1033</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1038</v>
+        <v>1010</v>
       </c>
       <c r="B260" t="s">
-        <v>1033</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
       <c r="B261" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="B262" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
       <c r="B263" t="s">
-        <v>1044</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>1045</v>
+        <v>1018</v>
       </c>
       <c r="B264" t="s">
-        <v>1046</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1047</v>
+        <v>1020</v>
       </c>
       <c r="B265" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="B266" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="B267" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>1053</v>
+        <v>1026</v>
       </c>
       <c r="B268" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
       <c r="B269" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
       <c r="B270" t="s">
-        <v>1058</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="B271" t="s">
-        <v>1060</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>1061</v>
+        <v>1033</v>
       </c>
       <c r="B272" t="s">
-        <v>1062</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1063</v>
+        <v>1034</v>
       </c>
       <c r="B273" t="s">
-        <v>1064</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1065</v>
+        <v>1035</v>
       </c>
       <c r="B274" t="s">
-        <v>1066</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>1067</v>
+        <v>1037</v>
       </c>
       <c r="B275" t="s">
-        <v>1068</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>1069</v>
+        <v>1039</v>
       </c>
       <c r="B276" t="s">
-        <v>1070</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1071</v>
+        <v>1041</v>
       </c>
       <c r="B277" t="s">
-        <v>1072</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1073</v>
+        <v>1043</v>
       </c>
       <c r="B278" t="s">
-        <v>1074</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1075</v>
+        <v>1045</v>
       </c>
       <c r="B279" t="s">
-        <v>1076</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1077</v>
+        <v>1047</v>
       </c>
       <c r="B280" t="s">
-        <v>1078</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1079</v>
+        <v>1049</v>
       </c>
       <c r="B281" t="s">
-        <v>1080</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>1081</v>
+        <v>1051</v>
       </c>
       <c r="B282" t="s">
-        <v>1082</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1083</v>
+        <v>1053</v>
       </c>
       <c r="B283" t="s">
-        <v>1084</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>1085</v>
+        <v>1055</v>
       </c>
       <c r="B284" t="s">
-        <v>1086</v>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
